--- a/inst/extdata/FNDA.xlsx
+++ b/inst/extdata/FNDA.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="holdings" sheetId="1" r:id="rId1"/>
+    <sheet name="historical" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,6 +361,111 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B731"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>As Of</t>
         </is>
       </c>
@@ -386,7 +492,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>101.4623865961182</v>
+        <v>101.462387</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +502,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>100.39487310394</v>
+        <v>100.394873</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +512,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>100.7402705380388</v>
+        <v>100.740271</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +522,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>99.15620028008615</v>
+        <v>99.1562</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +532,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>100.0294258141371</v>
+        <v>100.029426</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +542,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>100.8213776597679</v>
+        <v>100.821378</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +552,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>101.1286612290993</v>
+        <v>101.128661</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +562,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>101.6747918188062</v>
+        <v>101.674792</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +572,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>101.8687949013218</v>
+        <v>101.868795</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +582,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>101.503488050269</v>
+        <v>101.503488</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +592,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>101.2995979655308</v>
+        <v>101.299598</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>101.1958171176544</v>
+        <v>101.195817</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +612,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>101.0377771930144</v>
+        <v>101.037777</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +622,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>101.3447327691425</v>
+        <v>101.344733</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +632,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>100.3712206848527</v>
+        <v>100.371221</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +642,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>100.5868985877105</v>
+        <v>100.586899</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +652,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>101.874762086962</v>
+        <v>101.874762</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +662,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>101.1392917727444</v>
+        <v>101.139292</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +672,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>100.9691318439102</v>
+        <v>100.969132</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +682,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>102.172990326483</v>
+        <v>102.17299</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +692,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>102.4269915996137</v>
+        <v>102.426992</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +702,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>101.2551297924452</v>
+        <v>101.25513</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +712,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>101.3569368062759</v>
+        <v>101.356937</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +722,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>101.4834059153016</v>
+        <v>101.483406</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +732,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>101.5855576193207</v>
+        <v>101.585558</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +742,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>102.7724029899644</v>
+        <v>102.772403</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +752,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>101.6583174714086</v>
+        <v>101.658317</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +762,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>102.2757044151512</v>
+        <v>102.275704</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +772,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>102.0838202977299</v>
+        <v>102.08382</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +782,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>101.2117833029805</v>
+        <v>101.211783</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +792,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>101.3070396047646</v>
+        <v>101.30704</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +802,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>101.3264119743762</v>
+        <v>101.326412</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +812,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>102.0370262694588</v>
+        <v>102.037026</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +822,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>102.4226787371742</v>
+        <v>102.422679</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +832,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>101.2009460074638</v>
+        <v>101.200946</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +842,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>100.3668720030777</v>
+        <v>100.366872</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +852,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>100.4282252407852</v>
+        <v>100.428225</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +862,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>100.4659594822317</v>
+        <v>100.465959</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +872,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>99.72064045753342</v>
+        <v>99.72064</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +882,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>100.1642216162568</v>
+        <v>100.164222</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +892,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>99.72181406085161</v>
+        <v>99.72181399999999</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +902,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>100.3243830245349</v>
+        <v>100.324383</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +912,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>99.16340692517647</v>
+        <v>99.16340700000001</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +922,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>98.85173309814802</v>
+        <v>98.851733</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +932,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>98.87115802663691</v>
+        <v>98.87115799999999</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +942,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>97.58131996584972</v>
+        <v>97.58132000000001</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +952,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>96.54280686829158</v>
+        <v>96.542807</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +962,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>95.50684940991036</v>
+        <v>95.506849</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +972,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>95.5792770234619</v>
+        <v>95.579277</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +982,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>96.34307653046655</v>
+        <v>96.34307699999999</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +992,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>96.10933058651013</v>
+        <v>96.109331</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +1002,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>96.51358039705383</v>
+        <v>96.51358</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +1012,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>98.46622112379708</v>
+        <v>98.466221</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +1022,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>98.68126661130516</v>
+        <v>98.68126700000001</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +1032,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>99.65891046699645</v>
+        <v>99.65891000000001</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +1042,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>100.4561130408737</v>
+        <v>100.456113</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +1052,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>101.0087984377867</v>
+        <v>101.008798</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +1062,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>101.4007396528588</v>
+        <v>101.40074</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +1072,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>102.0500083254036</v>
+        <v>102.050008</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +1082,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>102.332570984181</v>
+        <v>102.332571</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +1092,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>102.2712170705071</v>
+        <v>102.271217</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +1102,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>102.4153984094468</v>
+        <v>102.415398</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1112,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>103.2638395742134</v>
+        <v>103.26384</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1122,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>103.456585773277</v>
+        <v>103.456586</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1132,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>101.4855245701061</v>
+        <v>101.485525</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1142,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>101.9552282193705</v>
+        <v>101.955228</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1152,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>101.7133414908396</v>
+        <v>101.713341</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1162,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>102.3078356563167</v>
+        <v>102.307836</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1172,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>103.6810266894588</v>
+        <v>103.681027</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1182,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>103.829494455757</v>
+        <v>103.829494</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1192,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>105.4505931087446</v>
+        <v>105.450593</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1202,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>105.7433444263925</v>
+        <v>105.743344</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1212,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>107.1229252839474</v>
+        <v>107.122925</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1222,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>107.0176280496568</v>
+        <v>107.017628</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1232,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>106.5190445888211</v>
+        <v>106.519045</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1242,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>104.6093192356985</v>
+        <v>104.609319</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1252,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>103.6497813146387</v>
+        <v>103.649781</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1262,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>101.9022808749694</v>
+        <v>101.902281</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1272,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>101.8407708216393</v>
+        <v>101.840771</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1282,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>101.2324094389818</v>
+        <v>101.232409</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1292,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>103.1701426499469</v>
+        <v>103.170143</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1302,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>103.9437050205319</v>
+        <v>103.943705</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1312,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>102.9636238845086</v>
+        <v>102.963624</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1322,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>103.2614776404617</v>
+        <v>103.261478</v>
       </c>
     </row>
     <row r="87">
@@ -1226,7 +1332,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>100.9106829098426</v>
+        <v>100.910683</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1342,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>101.4972913395499</v>
+        <v>101.497291</v>
       </c>
     </row>
     <row r="89">
@@ -1246,7 +1352,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>101.8485321269175</v>
+        <v>101.848532</v>
       </c>
     </row>
     <row r="90">
@@ -1256,7 +1362,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>102.5809436124866</v>
+        <v>102.580944</v>
       </c>
     </row>
     <row r="91">
@@ -1266,7 +1372,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>102.2192674737562</v>
+        <v>102.219267</v>
       </c>
     </row>
     <row r="92">
@@ -1276,7 +1382,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>102.5440800050989</v>
+        <v>102.54408</v>
       </c>
     </row>
     <row r="93">
@@ -1286,7 +1392,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>102.7645792359201</v>
+        <v>102.764579</v>
       </c>
     </row>
     <row r="94">
@@ -1296,7 +1402,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>102.8243048269088</v>
+        <v>102.824305</v>
       </c>
     </row>
     <row r="95">
@@ -1306,7 +1412,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>103.5604866891899</v>
+        <v>103.560487</v>
       </c>
     </row>
     <row r="96">
@@ -1316,7 +1422,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>102.840577931485</v>
+        <v>102.840578</v>
       </c>
     </row>
     <row r="97">
@@ -1326,7 +1432,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>102.7389471592841</v>
+        <v>102.738947</v>
       </c>
     </row>
     <row r="98">
@@ -1336,7 +1442,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>101.3927289010788</v>
+        <v>101.392729</v>
       </c>
     </row>
     <row r="99">
@@ -1346,7 +1452,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>101.5915915186275</v>
+        <v>101.591592</v>
       </c>
     </row>
     <row r="100">
@@ -1356,7 +1462,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>101.9310036732465</v>
+        <v>101.931004</v>
       </c>
     </row>
     <row r="101">
@@ -1366,7 +1472,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>100.0687386577266</v>
+        <v>100.068739</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1482,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>99.28167990888628</v>
+        <v>99.28167999999999</v>
       </c>
     </row>
     <row r="103">
@@ -1386,7 +1492,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>100.6821621052254</v>
+        <v>100.682162</v>
       </c>
     </row>
     <row r="104">
@@ -1396,7 +1502,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>101.2182842503352</v>
+        <v>101.218284</v>
       </c>
     </row>
     <row r="105">
@@ -1406,7 +1512,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>102.298966135367</v>
+        <v>102.298966</v>
       </c>
     </row>
     <row r="106">
@@ -1416,7 +1522,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>102.134358632749</v>
+        <v>102.134359</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1532,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>103.1890305489752</v>
+        <v>103.189031</v>
       </c>
     </row>
     <row r="108">
@@ -1436,7 +1542,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>102.8815729678523</v>
+        <v>102.881573</v>
       </c>
     </row>
     <row r="109">
@@ -1446,7 +1552,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>102.1689880550489</v>
+        <v>102.168988</v>
       </c>
     </row>
     <row r="110">
@@ -1456,7 +1562,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>101.6924274190386</v>
+        <v>101.692427</v>
       </c>
     </row>
     <row r="111">
@@ -1466,7 +1572,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>100.4939629538414</v>
+        <v>100.493963</v>
       </c>
     </row>
     <row r="112">
@@ -1476,7 +1582,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>101.5191353083763</v>
+        <v>101.519135</v>
       </c>
     </row>
     <row r="113">
@@ -1486,7 +1592,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>102.3319800007825</v>
+        <v>102.33198</v>
       </c>
     </row>
     <row r="114">
@@ -1496,7 +1602,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>101.4300344799891</v>
+        <v>101.430034</v>
       </c>
     </row>
     <row r="115">
@@ -1506,7 +1612,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>102.0663566836801</v>
+        <v>102.066357</v>
       </c>
     </row>
     <row r="116">
@@ -1516,7 +1622,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>101.8752892825731</v>
+        <v>101.875289</v>
       </c>
     </row>
     <row r="117">
@@ -1526,7 +1632,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>101.705499795954</v>
+        <v>101.7055</v>
       </c>
     </row>
     <row r="118">
@@ -1536,7 +1642,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>102.6408604413843</v>
+        <v>102.64086</v>
       </c>
     </row>
     <row r="119">
@@ -1546,7 +1652,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>103.2380310301689</v>
+        <v>103.238031</v>
       </c>
     </row>
     <row r="120">
@@ -1556,7 +1662,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>104.0313683727747</v>
+        <v>104.031368</v>
       </c>
     </row>
     <row r="121">
@@ -1566,7 +1672,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>102.8646003648999</v>
+        <v>102.8646</v>
       </c>
     </row>
     <row r="122">
@@ -1576,7 +1682,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>103.0767384206817</v>
+        <v>103.076738</v>
       </c>
     </row>
     <row r="123">
@@ -1586,7 +1692,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>102.3017344839489</v>
+        <v>102.301734</v>
       </c>
     </row>
     <row r="124">
@@ -1596,7 +1702,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>102.8469318449833</v>
+        <v>102.846932</v>
       </c>
     </row>
     <row r="125">
@@ -1606,7 +1712,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>103.2566648086953</v>
+        <v>103.256665</v>
       </c>
     </row>
     <row r="126">
@@ -1616,7 +1722,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>104.2164824273901</v>
+        <v>104.216482</v>
       </c>
     </row>
     <row r="127">
@@ -1626,7 +1732,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>103.4697335122194</v>
+        <v>103.469734</v>
       </c>
     </row>
     <row r="128">
@@ -1636,7 +1742,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>104.3452991967111</v>
+        <v>104.345299</v>
       </c>
     </row>
     <row r="129">
@@ -1646,7 +1752,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>104.7851168953786</v>
+        <v>104.785117</v>
       </c>
     </row>
     <row r="130">
@@ -1656,7 +1762,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>105.2960116757279</v>
+        <v>105.296012</v>
       </c>
     </row>
     <row r="131">
@@ -1666,7 +1772,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>104.2731776744004</v>
+        <v>104.273178</v>
       </c>
     </row>
     <row r="132">
@@ -1676,7 +1782,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>103.4149462866257</v>
+        <v>103.414946</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1792,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>101.8730419727584</v>
+        <v>101.873042</v>
       </c>
     </row>
     <row r="134">
@@ -1696,7 +1802,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>102.241226408121</v>
+        <v>102.241226</v>
       </c>
     </row>
     <row r="135">
@@ -1706,7 +1812,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>103.3921144854395</v>
+        <v>103.392114</v>
       </c>
     </row>
     <row r="136">
@@ -1716,7 +1822,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>103.5728297464688</v>
+        <v>103.57283</v>
       </c>
     </row>
     <row r="137">
@@ -1726,7 +1832,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>102.3214008268352</v>
+        <v>102.321401</v>
       </c>
     </row>
     <row r="138">
@@ -1736,7 +1842,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>102.0435044149822</v>
+        <v>102.043504</v>
       </c>
     </row>
     <row r="139">
@@ -1746,7 +1852,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>102.0295194304492</v>
+        <v>102.029519</v>
       </c>
     </row>
     <row r="140">
@@ -1756,7 +1862,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>102.4088031801722</v>
+        <v>102.408803</v>
       </c>
     </row>
     <row r="141">
@@ -1766,7 +1872,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>102.121319604223</v>
+        <v>102.12132</v>
       </c>
     </row>
     <row r="142">
@@ -1776,7 +1882,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>103.654838427285</v>
+        <v>103.654838</v>
       </c>
     </row>
     <row r="143">
@@ -1786,7 +1892,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>103.5593486452671</v>
+        <v>103.559349</v>
       </c>
     </row>
     <row r="144">
@@ -1796,7 +1902,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>104.3052079738576</v>
+        <v>104.305208</v>
       </c>
     </row>
     <row r="145">
@@ -1806,7 +1912,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>106.2559818385099</v>
+        <v>106.255982</v>
       </c>
     </row>
     <row r="146">
@@ -1816,7 +1922,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>106.965069432198</v>
+        <v>106.965069</v>
       </c>
     </row>
     <row r="147">
@@ -1826,7 +1932,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>108.1297737601441</v>
+        <v>108.129774</v>
       </c>
     </row>
     <row r="148">
@@ -1836,7 +1942,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>108.4928405083003</v>
+        <v>108.492841</v>
       </c>
     </row>
     <row r="149">
@@ -1846,7 +1952,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>108.7134628105752</v>
+        <v>108.713463</v>
       </c>
     </row>
     <row r="150">
@@ -1856,7 +1962,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>109.2680635124248</v>
+        <v>109.268064</v>
       </c>
     </row>
     <row r="151">
@@ -1866,7 +1972,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>109.7792277670419</v>
+        <v>109.779228</v>
       </c>
     </row>
     <row r="152">
@@ -1876,7 +1982,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>108.059345788136</v>
+        <v>108.059346</v>
       </c>
     </row>
     <row r="153">
@@ -1886,7 +1992,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>107.368991246491</v>
+        <v>107.368991</v>
       </c>
     </row>
     <row r="154">
@@ -1896,7 +2002,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>107.8717354919687</v>
+        <v>107.871735</v>
       </c>
     </row>
     <row r="155">
@@ -1906,7 +2012,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>107.5809671910209</v>
+        <v>107.580967</v>
       </c>
     </row>
     <row r="156">
@@ -1916,7 +2022,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>106.6736774262692</v>
+        <v>106.673677</v>
       </c>
     </row>
     <row r="157">
@@ -1926,7 +2032,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>106.738669907416</v>
+        <v>106.73867</v>
       </c>
     </row>
     <row r="158">
@@ -1936,7 +2042,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>107.2732356006861</v>
+        <v>107.273236</v>
       </c>
     </row>
     <row r="159">
@@ -1946,7 +2052,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>105.4875012473108</v>
+        <v>105.487501</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +2062,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>105.0687341152638</v>
+        <v>105.068734</v>
       </c>
     </row>
     <row r="161">
@@ -1966,7 +2072,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>105.5438553317196</v>
+        <v>105.543855</v>
       </c>
     </row>
     <row r="162">
@@ -1976,7 +2082,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>103.0434476123833</v>
+        <v>103.043448</v>
       </c>
     </row>
     <row r="163">
@@ -1986,7 +2092,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>101.4080826215036</v>
+        <v>101.408083</v>
       </c>
     </row>
     <row r="164">
@@ -1996,7 +2102,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>102.9467602433923</v>
+        <v>102.94676</v>
       </c>
     </row>
     <row r="165">
@@ -2006,7 +2112,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>103.5523172200556</v>
+        <v>103.552317</v>
       </c>
     </row>
     <row r="166">
@@ -2016,7 +2122,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>103.8729072021483</v>
+        <v>103.872907</v>
       </c>
     </row>
     <row r="167">
@@ -2026,7 +2132,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>102.9218845889887</v>
+        <v>102.921885</v>
       </c>
     </row>
     <row r="168">
@@ -2036,7 +2142,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>102.6566159075985</v>
+        <v>102.656616</v>
       </c>
     </row>
     <row r="169">
@@ -2046,7 +2152,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>100.9859813209085</v>
+        <v>100.985981</v>
       </c>
     </row>
     <row r="170">
@@ -2056,7 +2162,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>99.6195909388683</v>
+        <v>99.619591</v>
       </c>
     </row>
     <row r="171">
@@ -2066,7 +2172,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>99.02626148206024</v>
+        <v>99.02626100000001</v>
       </c>
     </row>
     <row r="172">
@@ -2076,7 +2182,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>98.6742694007385</v>
+        <v>98.674269</v>
       </c>
     </row>
     <row r="173">
@@ -2086,7 +2192,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>98.70443880361516</v>
+        <v>98.70443899999999</v>
       </c>
     </row>
     <row r="174">
@@ -2096,7 +2202,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>98.19424028604085</v>
+        <v>98.19423999999999</v>
       </c>
     </row>
     <row r="175">
@@ -2106,7 +2212,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>97.984906477046</v>
+        <v>97.984906</v>
       </c>
     </row>
     <row r="176">
@@ -2116,7 +2222,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>97.7865576422483</v>
+        <v>97.786558</v>
       </c>
     </row>
     <row r="177">
@@ -2126,7 +2232,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>99.06582156679968</v>
+        <v>99.065822</v>
       </c>
     </row>
     <row r="178">
@@ -2136,7 +2242,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>98.80396228711749</v>
+        <v>98.803962</v>
       </c>
     </row>
     <row r="179">
@@ -2146,7 +2252,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>100.2922172800299</v>
+        <v>100.292217</v>
       </c>
     </row>
     <row r="180">
@@ -2156,7 +2262,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>99.15632971303931</v>
+        <v>99.15633</v>
       </c>
     </row>
     <row r="181">
@@ -2166,7 +2272,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>98.58483479834352</v>
+        <v>98.584835</v>
       </c>
     </row>
     <row r="182">
@@ -2176,7 +2282,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>100.2285582735837</v>
+        <v>100.228558</v>
       </c>
     </row>
     <row r="183">
@@ -2186,7 +2292,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>99.6988577842092</v>
+        <v>99.698858</v>
       </c>
     </row>
     <row r="184">
@@ -2196,7 +2302,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>99.01934744700247</v>
+        <v>99.019347</v>
       </c>
     </row>
     <row r="185">
@@ -2206,7 +2312,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>99.57593307931383</v>
+        <v>99.57593300000001</v>
       </c>
     </row>
     <row r="186">
@@ -2216,7 +2322,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>99.32763886666761</v>
+        <v>99.327639</v>
       </c>
     </row>
     <row r="187">
@@ -2226,7 +2332,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>101.1457053041257</v>
+        <v>101.145705</v>
       </c>
     </row>
     <row r="188">
@@ -2236,7 +2342,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>101.795599281049</v>
+        <v>101.795599</v>
       </c>
     </row>
     <row r="189">
@@ -2246,7 +2352,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>101.918627213009</v>
+        <v>101.918627</v>
       </c>
     </row>
     <row r="190">
@@ -2256,7 +2362,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>101.6157934766261</v>
+        <v>101.615793</v>
       </c>
     </row>
     <row r="191">
@@ -2266,7 +2372,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>100.7823766942812</v>
+        <v>100.782377</v>
       </c>
     </row>
     <row r="192">
@@ -2276,7 +2382,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>100.6203535943219</v>
+        <v>100.620354</v>
       </c>
     </row>
     <row r="193">
@@ -2286,7 +2392,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>101.1456922311465</v>
+        <v>101.145692</v>
       </c>
     </row>
     <row r="194">
@@ -2296,7 +2402,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>100.2325060201541</v>
+        <v>100.232506</v>
       </c>
     </row>
     <row r="195">
@@ -2306,7 +2412,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>98.8001587218814</v>
+        <v>98.80015899999999</v>
       </c>
     </row>
     <row r="196">
@@ -2316,7 +2422,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>99.12160024579568</v>
+        <v>99.1216</v>
       </c>
     </row>
     <row r="197">
@@ -2326,7 +2432,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>100.1160489349858</v>
+        <v>100.116049</v>
       </c>
     </row>
     <row r="198">
@@ -2336,7 +2442,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>99.52268889627426</v>
+        <v>99.522689</v>
       </c>
     </row>
     <row r="199">
@@ -2346,7 +2452,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>98.69095427445389</v>
+        <v>98.690954</v>
       </c>
     </row>
     <row r="200">
@@ -2356,7 +2462,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>98.56453995267967</v>
+        <v>98.56453999999999</v>
       </c>
     </row>
     <row r="201">
@@ -2366,7 +2472,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>98.64268371745783</v>
+        <v>98.642684</v>
       </c>
     </row>
     <row r="202">
@@ -2376,7 +2482,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>98.61057252056278</v>
+        <v>98.610573</v>
       </c>
     </row>
     <row r="203">
@@ -2386,7 +2492,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>97.91396325874882</v>
+        <v>97.913963</v>
       </c>
     </row>
     <row r="204">
@@ -2396,7 +2502,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>97.39418446167234</v>
+        <v>97.394184</v>
       </c>
     </row>
     <row r="205">
@@ -2406,7 +2512,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>98.88160984984228</v>
+        <v>98.88160999999999</v>
       </c>
     </row>
     <row r="206">
@@ -2416,7 +2522,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>100.123295503816</v>
+        <v>100.123296</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2532,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>98.4607521129044</v>
+        <v>98.460752</v>
       </c>
     </row>
     <row r="208">
@@ -2436,7 +2542,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>97.62347795544865</v>
+        <v>97.62347800000001</v>
       </c>
     </row>
     <row r="209">
@@ -2446,7 +2552,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>96.83952087967957</v>
+        <v>96.839521</v>
       </c>
     </row>
     <row r="210">
@@ -2456,7 +2562,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>97.82464432030056</v>
+        <v>97.82464400000001</v>
       </c>
     </row>
     <row r="211">
@@ -2466,7 +2572,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>98.18066306264606</v>
+        <v>98.180663</v>
       </c>
     </row>
     <row r="212">
@@ -2476,7 +2582,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>97.52144839334413</v>
+        <v>97.52144800000001</v>
       </c>
     </row>
     <row r="213">
@@ -2486,7 +2592,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>98.10613833017973</v>
+        <v>98.106138</v>
       </c>
     </row>
     <row r="214">
@@ -2496,7 +2602,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>96.30798988839693</v>
+        <v>96.30799</v>
       </c>
     </row>
     <row r="215">
@@ -2506,7 +2612,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>96.49366493822403</v>
+        <v>96.49366499999999</v>
       </c>
     </row>
     <row r="216">
@@ -2516,7 +2622,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>95.09558427519809</v>
+        <v>95.095584</v>
       </c>
     </row>
     <row r="217">
@@ -2526,7 +2632,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>95.43282048972098</v>
+        <v>95.43282000000001</v>
       </c>
     </row>
     <row r="218">
@@ -2536,7 +2642,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>95.86118659105543</v>
+        <v>95.861187</v>
       </c>
     </row>
     <row r="219">
@@ -2546,7 +2652,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>94.49118290844656</v>
+        <v>94.49118300000001</v>
       </c>
     </row>
     <row r="220">
@@ -2556,7 +2662,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>94.31064228392731</v>
+        <v>94.310642</v>
       </c>
     </row>
     <row r="221">
@@ -2566,7 +2672,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>94.6139159285735</v>
+        <v>94.613916</v>
       </c>
     </row>
     <row r="222">
@@ -2576,7 +2682,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>93.74401012483014</v>
+        <v>93.74401</v>
       </c>
     </row>
     <row r="223">
@@ -2586,7 +2692,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>93.71694863095071</v>
+        <v>93.716949</v>
       </c>
     </row>
     <row r="224">
@@ -2596,7 +2702,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>94.69172379044348</v>
+        <v>94.69172399999999</v>
       </c>
     </row>
     <row r="225">
@@ -2606,7 +2712,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>94.1814903081916</v>
+        <v>94.18149</v>
       </c>
     </row>
     <row r="226">
@@ -2616,7 +2722,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>95.424572368762</v>
+        <v>95.424572</v>
       </c>
     </row>
     <row r="227">
@@ -2626,7 +2732,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>96.07439407017046</v>
+        <v>96.074394</v>
       </c>
     </row>
     <row r="228">
@@ -2636,7 +2742,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>96.41203165542154</v>
+        <v>96.412032</v>
       </c>
     </row>
     <row r="229">
@@ -2646,7 +2752,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>97.75834727679789</v>
+        <v>97.758347</v>
       </c>
     </row>
     <row r="230">
@@ -2656,7 +2762,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>97.55125687888444</v>
+        <v>97.55125700000001</v>
       </c>
     </row>
     <row r="231">
@@ -2666,7 +2772,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>97.34338077363383</v>
+        <v>97.34338099999999</v>
       </c>
     </row>
     <row r="232">
@@ -2676,7 +2782,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>97.36145305201875</v>
+        <v>97.361453</v>
       </c>
     </row>
     <row r="233">
@@ -2686,7 +2792,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>97.102714561951</v>
+        <v>97.102715</v>
       </c>
     </row>
     <row r="234">
@@ -2696,7 +2802,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>97.36257105481015</v>
+        <v>97.362571</v>
       </c>
     </row>
     <row r="235">
@@ -2706,7 +2812,7 @@
         </is>
       </c>
       <c r="B235">
-        <v>97.80549029934879</v>
+        <v>97.80549000000001</v>
       </c>
     </row>
     <row r="236">
@@ -2716,7 +2822,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>98.3746658763318</v>
+        <v>98.374666</v>
       </c>
     </row>
     <row r="237">
@@ -2726,7 +2832,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>97.91953211921114</v>
+        <v>97.919532</v>
       </c>
     </row>
     <row r="238">
@@ -2736,7 +2842,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>97.8029661885965</v>
+        <v>97.802966</v>
       </c>
     </row>
     <row r="239">
@@ -2746,7 +2852,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>97.14824700060352</v>
+        <v>97.148247</v>
       </c>
     </row>
     <row r="240">
@@ -2756,7 +2862,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>97.47725619071818</v>
+        <v>97.477256</v>
       </c>
     </row>
     <row r="241">
@@ -2766,7 +2872,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>96.78205775948399</v>
+        <v>96.78205800000001</v>
       </c>
     </row>
     <row r="242">
@@ -2776,7 +2882,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>96.3939824814391</v>
+        <v>96.39398199999999</v>
       </c>
     </row>
     <row r="243">
@@ -2786,7 +2892,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>95.65743439686256</v>
+        <v>95.65743399999999</v>
       </c>
     </row>
     <row r="244">
@@ -2796,7 +2902,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>95.22629934485535</v>
+        <v>95.226299</v>
       </c>
     </row>
     <row r="245">
@@ -2806,7 +2912,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>95.5002755216442</v>
+        <v>95.500276</v>
       </c>
     </row>
     <row r="246">
@@ -2816,7 +2922,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>96.29785957296453</v>
+        <v>96.29786</v>
       </c>
     </row>
     <row r="247">
@@ -2826,7 +2932,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>95.48292828920432</v>
+        <v>95.482928</v>
       </c>
     </row>
     <row r="248">
@@ -2836,7 +2942,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>95.78375749215675</v>
+        <v>95.78375699999999</v>
       </c>
     </row>
     <row r="249">
@@ -2846,7 +2952,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>95.99146735378979</v>
+        <v>95.991467</v>
       </c>
     </row>
     <row r="250">
@@ -2856,7 +2962,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>96.51257170129497</v>
+        <v>96.51257200000001</v>
       </c>
     </row>
     <row r="251">
@@ -2866,7 +2972,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>96.26468861048923</v>
+        <v>96.264689</v>
       </c>
     </row>
     <row r="252">
@@ -2876,7 +2982,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>96.93773200012006</v>
+        <v>96.937732</v>
       </c>
     </row>
     <row r="253">
@@ -2886,7 +2992,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>98.22505273060469</v>
+        <v>98.225053</v>
       </c>
     </row>
     <row r="254">
@@ -2896,7 +3002,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>98.63007396026327</v>
+        <v>98.63007399999999</v>
       </c>
     </row>
     <row r="255">
@@ -2906,7 +3012,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>98.68690295879141</v>
+        <v>98.686903</v>
       </c>
     </row>
     <row r="256">
@@ -2916,7 +3022,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>97.9231416479597</v>
+        <v>97.923142</v>
       </c>
     </row>
     <row r="257">
@@ -2926,7 +3032,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>97.37209799541201</v>
+        <v>97.37209799999999</v>
       </c>
     </row>
     <row r="258">
@@ -2936,7 +3042,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>97.93441737672435</v>
+        <v>97.934417</v>
       </c>
     </row>
     <row r="259">
@@ -2946,7 +3052,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>97.91075781568954</v>
+        <v>97.910758</v>
       </c>
     </row>
     <row r="260">
@@ -2956,7 +3062,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>97.68292679209502</v>
+        <v>97.68292700000001</v>
       </c>
     </row>
     <row r="261">
@@ -2966,7 +3072,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>97.99787828049051</v>
+        <v>97.997878</v>
       </c>
     </row>
     <row r="262">
@@ -2976,7 +3082,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>97.7336709323843</v>
+        <v>97.733671</v>
       </c>
     </row>
     <row r="263">
@@ -2986,7 +3092,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>97.3336546189486</v>
+        <v>97.33365499999999</v>
       </c>
     </row>
     <row r="264">
@@ -2996,7 +3102,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>97.2012147175577</v>
+        <v>97.201215</v>
       </c>
     </row>
     <row r="265">
@@ -3006,7 +3112,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>98.1040362903308</v>
+        <v>98.10403599999999</v>
       </c>
     </row>
     <row r="266">
@@ -3016,7 +3122,7 @@
         </is>
       </c>
       <c r="B266">
-        <v>97.63454243561821</v>
+        <v>97.634542</v>
       </c>
     </row>
     <row r="267">
@@ -3026,7 +3132,7 @@
         </is>
       </c>
       <c r="B267">
-        <v>98.50902672088083</v>
+        <v>98.509027</v>
       </c>
     </row>
     <row r="268">
@@ -3036,7 +3142,7 @@
         </is>
       </c>
       <c r="B268">
-        <v>97.57493601468514</v>
+        <v>97.57493599999999</v>
       </c>
     </row>
     <row r="269">
@@ -3046,7 +3152,7 @@
         </is>
       </c>
       <c r="B269">
-        <v>98.39010837551571</v>
+        <v>98.390108</v>
       </c>
     </row>
     <row r="270">
@@ -3056,7 +3162,7 @@
         </is>
       </c>
       <c r="B270">
-        <v>99.1605931203229</v>
+        <v>99.16059300000001</v>
       </c>
     </row>
     <row r="271">
@@ -3066,7 +3172,7 @@
         </is>
       </c>
       <c r="B271">
-        <v>99.65353910467192</v>
+        <v>99.65353899999999</v>
       </c>
     </row>
     <row r="272">
@@ -3076,7 +3182,7 @@
         </is>
       </c>
       <c r="B272">
-        <v>98.97985335011055</v>
+        <v>98.97985300000001</v>
       </c>
     </row>
     <row r="273">
@@ -3086,7 +3192,7 @@
         </is>
       </c>
       <c r="B273">
-        <v>97.69359881859776</v>
+        <v>97.69359900000001</v>
       </c>
     </row>
     <row r="274">
@@ -3096,7 +3202,7 @@
         </is>
       </c>
       <c r="B274">
-        <v>98.36257654399425</v>
+        <v>98.362577</v>
       </c>
     </row>
     <row r="275">
@@ -3106,7 +3212,7 @@
         </is>
       </c>
       <c r="B275">
-        <v>97.85994012966938</v>
+        <v>97.85993999999999</v>
       </c>
     </row>
     <row r="276">
@@ -3116,7 +3222,7 @@
         </is>
       </c>
       <c r="B276">
-        <v>97.30111702499299</v>
+        <v>97.301117</v>
       </c>
     </row>
     <row r="277">
@@ -3126,7 +3232,7 @@
         </is>
       </c>
       <c r="B277">
-        <v>97.25952001898047</v>
+        <v>97.25951999999999</v>
       </c>
     </row>
     <row r="278">
@@ -3136,7 +3242,7 @@
         </is>
       </c>
       <c r="B278">
-        <v>98.39233643414528</v>
+        <v>98.392336</v>
       </c>
     </row>
     <row r="279">
@@ -3146,7 +3252,7 @@
         </is>
       </c>
       <c r="B279">
-        <v>99.56042899131319</v>
+        <v>99.560429</v>
       </c>
     </row>
     <row r="280">
@@ -3156,7 +3262,7 @@
         </is>
       </c>
       <c r="B280">
-        <v>100.6291945075919</v>
+        <v>100.629195</v>
       </c>
     </row>
     <row r="281">
@@ -3166,7 +3272,7 @@
         </is>
       </c>
       <c r="B281">
-        <v>99.62984473981528</v>
+        <v>99.629845</v>
       </c>
     </row>
     <row r="282">
@@ -3176,7 +3282,7 @@
         </is>
       </c>
       <c r="B282">
-        <v>100.112984335788</v>
+        <v>100.112984</v>
       </c>
     </row>
     <row r="283">
@@ -3186,7 +3292,7 @@
         </is>
       </c>
       <c r="B283">
-        <v>100.4844056847381</v>
+        <v>100.484406</v>
       </c>
     </row>
     <row r="284">
@@ -3196,7 +3302,7 @@
         </is>
       </c>
       <c r="B284">
-        <v>98.57628275276419</v>
+        <v>98.576283</v>
       </c>
     </row>
     <row r="285">
@@ -3206,7 +3312,7 @@
         </is>
       </c>
       <c r="B285">
-        <v>95.96093268455209</v>
+        <v>95.960933</v>
       </c>
     </row>
     <row r="286">
@@ -3216,7 +3322,7 @@
         </is>
       </c>
       <c r="B286">
-        <v>96.8651485989986</v>
+        <v>96.865149</v>
       </c>
     </row>
     <row r="287">
@@ -3226,7 +3332,7 @@
         </is>
       </c>
       <c r="B287">
-        <v>97.1679557511916</v>
+        <v>97.167956</v>
       </c>
     </row>
     <row r="288">
@@ -3236,7 +3342,7 @@
         </is>
       </c>
       <c r="B288">
-        <v>97.41107151841476</v>
+        <v>97.411072</v>
       </c>
     </row>
     <row r="289">
@@ -3246,7 +3352,7 @@
         </is>
       </c>
       <c r="B289">
-        <v>96.78955159124986</v>
+        <v>96.789552</v>
       </c>
     </row>
     <row r="290">
@@ -3256,7 +3362,7 @@
         </is>
       </c>
       <c r="B290">
-        <v>96.66286320247728</v>
+        <v>96.662863</v>
       </c>
     </row>
     <row r="291">
@@ -3266,7 +3372,7 @@
         </is>
       </c>
       <c r="B291">
-        <v>95.57600927783102</v>
+        <v>95.576009</v>
       </c>
     </row>
     <row r="292">
@@ -3276,7 +3382,7 @@
         </is>
       </c>
       <c r="B292">
-        <v>95.46970963033367</v>
+        <v>95.46971000000001</v>
       </c>
     </row>
     <row r="293">
@@ -3286,7 +3392,7 @@
         </is>
       </c>
       <c r="B293">
-        <v>96.86716800593351</v>
+        <v>96.86716800000001</v>
       </c>
     </row>
     <row r="294">
@@ -3296,7 +3402,7 @@
         </is>
       </c>
       <c r="B294">
-        <v>95.84636831921436</v>
+        <v>95.846368</v>
       </c>
     </row>
     <row r="295">
@@ -3306,7 +3412,7 @@
         </is>
       </c>
       <c r="B295">
-        <v>96.0782005744954</v>
+        <v>96.07820100000001</v>
       </c>
     </row>
     <row r="296">
@@ -3316,7 +3422,7 @@
         </is>
       </c>
       <c r="B296">
-        <v>96.26250803727334</v>
+        <v>96.262508</v>
       </c>
     </row>
     <row r="297">
@@ -3326,7 +3432,7 @@
         </is>
       </c>
       <c r="B297">
-        <v>95.9973990036226</v>
+        <v>95.997399</v>
       </c>
     </row>
     <row r="298">
@@ -3336,7 +3442,7 @@
         </is>
       </c>
       <c r="B298">
-        <v>96.73013534583231</v>
+        <v>96.730135</v>
       </c>
     </row>
     <row r="299">
@@ -3346,7 +3452,7 @@
         </is>
       </c>
       <c r="B299">
-        <v>94.66575883724759</v>
+        <v>94.66575899999999</v>
       </c>
     </row>
     <row r="300">
@@ -3356,7 +3462,7 @@
         </is>
       </c>
       <c r="B300">
-        <v>96.15576963195147</v>
+        <v>96.15577</v>
       </c>
     </row>
     <row r="301">
@@ -3366,7 +3472,7 @@
         </is>
       </c>
       <c r="B301">
-        <v>96.43054491685683</v>
+        <v>96.430545</v>
       </c>
     </row>
     <row r="302">
@@ -3376,7 +3482,7 @@
         </is>
       </c>
       <c r="B302">
-        <v>95.76266887685945</v>
+        <v>95.762669</v>
       </c>
     </row>
     <row r="303">
@@ -3386,7 +3492,7 @@
         </is>
       </c>
       <c r="B303">
-        <v>95.68145916571605</v>
+        <v>95.681459</v>
       </c>
     </row>
     <row r="304">
@@ -3396,7 +3502,7 @@
         </is>
       </c>
       <c r="B304">
-        <v>94.51395513987502</v>
+        <v>94.513955</v>
       </c>
     </row>
     <row r="305">
@@ -3406,7 +3512,7 @@
         </is>
       </c>
       <c r="B305">
-        <v>93.57795629115711</v>
+        <v>93.577956</v>
       </c>
     </row>
     <row r="306">
@@ -3416,7 +3522,7 @@
         </is>
       </c>
       <c r="B306">
-        <v>93.01333142227404</v>
+        <v>93.01333099999999</v>
       </c>
     </row>
     <row r="307">
@@ -3426,7 +3532,7 @@
         </is>
       </c>
       <c r="B307">
-        <v>91.96857951693988</v>
+        <v>91.96858</v>
       </c>
     </row>
     <row r="308">
@@ -3436,7 +3542,7 @@
         </is>
       </c>
       <c r="B308">
-        <v>91.21085840020228</v>
+        <v>91.210858</v>
       </c>
     </row>
     <row r="309">
@@ -3446,7 +3552,7 @@
         </is>
       </c>
       <c r="B309">
-        <v>92.45103028487252</v>
+        <v>92.45103</v>
       </c>
     </row>
     <row r="310">
@@ -3456,7 +3562,7 @@
         </is>
       </c>
       <c r="B310">
-        <v>92.01973957927289</v>
+        <v>92.01974</v>
       </c>
     </row>
     <row r="311">
@@ -3466,7 +3572,7 @@
         </is>
       </c>
       <c r="B311">
-        <v>91.7002475124671</v>
+        <v>91.700248</v>
       </c>
     </row>
     <row r="312">
@@ -3476,7 +3582,7 @@
         </is>
       </c>
       <c r="B312">
-        <v>92.86033860637582</v>
+        <v>92.860339</v>
       </c>
     </row>
     <row r="313">
@@ -3486,7 +3592,7 @@
         </is>
       </c>
       <c r="B313">
-        <v>91.42242914201027</v>
+        <v>91.42242899999999</v>
       </c>
     </row>
     <row r="314">
@@ -3496,7 +3602,7 @@
         </is>
       </c>
       <c r="B314">
-        <v>90.11580116189445</v>
+        <v>90.115801</v>
       </c>
     </row>
     <row r="315">
@@ -3506,7 +3612,7 @@
         </is>
       </c>
       <c r="B315">
-        <v>90.3934355798755</v>
+        <v>90.39343599999999</v>
       </c>
     </row>
     <row r="316">
@@ -3516,7 +3622,7 @@
         </is>
       </c>
       <c r="B316">
-        <v>89.35591883833909</v>
+        <v>89.355919</v>
       </c>
     </row>
     <row r="317">
@@ -3526,7 +3632,7 @@
         </is>
       </c>
       <c r="B317">
-        <v>89.71473246863358</v>
+        <v>89.714732</v>
       </c>
     </row>
     <row r="318">
@@ -3536,7 +3642,7 @@
         </is>
       </c>
       <c r="B318">
-        <v>89.99369777692358</v>
+        <v>89.99369799999999</v>
       </c>
     </row>
     <row r="319">
@@ -3546,7 +3652,7 @@
         </is>
       </c>
       <c r="B319">
-        <v>90.09965689423839</v>
+        <v>90.09965699999999</v>
       </c>
     </row>
     <row r="320">
@@ -3556,7 +3662,7 @@
         </is>
       </c>
       <c r="B320">
-        <v>90.18340400129308</v>
+        <v>90.183404</v>
       </c>
     </row>
     <row r="321">
@@ -3566,7 +3672,7 @@
         </is>
       </c>
       <c r="B321">
-        <v>90.77174083130534</v>
+        <v>90.77174100000001</v>
       </c>
     </row>
     <row r="322">
@@ -3576,7 +3682,7 @@
         </is>
       </c>
       <c r="B322">
-        <v>91.47607755835399</v>
+        <v>91.476078</v>
       </c>
     </row>
     <row r="323">
@@ -3586,7 +3692,7 @@
         </is>
       </c>
       <c r="B323">
-        <v>91.73010675048258</v>
+        <v>91.730107</v>
       </c>
     </row>
     <row r="324">
@@ -3596,7 +3702,7 @@
         </is>
       </c>
       <c r="B324">
-        <v>90.93425898266777</v>
+        <v>90.934259</v>
       </c>
     </row>
     <row r="325">
@@ -3606,7 +3712,7 @@
         </is>
       </c>
       <c r="B325">
-        <v>90.5153844312516</v>
+        <v>90.515384</v>
       </c>
     </row>
     <row r="326">
@@ -3616,7 +3722,7 @@
         </is>
       </c>
       <c r="B326">
-        <v>90.56826264707615</v>
+        <v>90.568263</v>
       </c>
     </row>
     <row r="327">
@@ -3626,7 +3732,7 @@
         </is>
       </c>
       <c r="B327">
-        <v>91.34866200024398</v>
+        <v>91.348662</v>
       </c>
     </row>
     <row r="328">
@@ -3636,7 +3742,7 @@
         </is>
       </c>
       <c r="B328">
-        <v>89.72435015105597</v>
+        <v>89.72435</v>
       </c>
     </row>
     <row r="329">
@@ -3646,7 +3752,7 @@
         </is>
       </c>
       <c r="B329">
-        <v>90.12312065147911</v>
+        <v>90.123121</v>
       </c>
     </row>
     <row r="330">
@@ -3656,7 +3762,7 @@
         </is>
       </c>
       <c r="B330">
-        <v>89.94403646523783</v>
+        <v>89.944036</v>
       </c>
     </row>
     <row r="331">
@@ -3666,7 +3772,7 @@
         </is>
       </c>
       <c r="B331">
-        <v>89.87048751930922</v>
+        <v>89.87048799999999</v>
       </c>
     </row>
     <row r="332">
@@ -3676,7 +3782,7 @@
         </is>
       </c>
       <c r="B332">
-        <v>89.65351796570712</v>
+        <v>89.65351800000001</v>
       </c>
     </row>
     <row r="333">
@@ -3686,7 +3792,7 @@
         </is>
       </c>
       <c r="B333">
-        <v>89.91566466375637</v>
+        <v>89.915665</v>
       </c>
     </row>
     <row r="334">
@@ -3696,7 +3802,7 @@
         </is>
       </c>
       <c r="B334">
-        <v>90.07470036588552</v>
+        <v>90.07470000000001</v>
       </c>
     </row>
     <row r="335">
@@ -3706,7 +3812,7 @@
         </is>
       </c>
       <c r="B335">
-        <v>89.51335890760514</v>
+        <v>89.51335899999999</v>
       </c>
     </row>
     <row r="336">
@@ -3716,7 +3822,7 @@
         </is>
       </c>
       <c r="B336">
-        <v>89.64974615162026</v>
+        <v>89.64974599999999</v>
       </c>
     </row>
     <row r="337">
@@ -3726,7 +3832,7 @@
         </is>
       </c>
       <c r="B337">
-        <v>89.86467124504838</v>
+        <v>89.864671</v>
       </c>
     </row>
     <row r="338">
@@ -3736,7 +3842,7 @@
         </is>
       </c>
       <c r="B338">
-        <v>89.51741105944883</v>
+        <v>89.517411</v>
       </c>
     </row>
     <row r="339">
@@ -3746,7 +3852,7 @@
         </is>
       </c>
       <c r="B339">
-        <v>89.26424779936606</v>
+        <v>89.26424799999999</v>
       </c>
     </row>
     <row r="340">
@@ -3756,7 +3862,7 @@
         </is>
       </c>
       <c r="B340">
-        <v>89.45080172448719</v>
+        <v>89.450802</v>
       </c>
     </row>
     <row r="341">
@@ -3766,7 +3872,7 @@
         </is>
       </c>
       <c r="B341">
-        <v>88.67863354844498</v>
+        <v>88.678634</v>
       </c>
     </row>
     <row r="342">
@@ -3776,7 +3882,7 @@
         </is>
       </c>
       <c r="B342">
-        <v>88.50186794265336</v>
+        <v>88.501868</v>
       </c>
     </row>
     <row r="343">
@@ -3786,7 +3892,7 @@
         </is>
       </c>
       <c r="B343">
-        <v>89.05937635093001</v>
+        <v>89.059376</v>
       </c>
     </row>
     <row r="344">
@@ -3796,7 +3902,7 @@
         </is>
       </c>
       <c r="B344">
-        <v>89.25395894504344</v>
+        <v>89.25395899999999</v>
       </c>
     </row>
     <row r="345">
@@ -3806,7 +3912,7 @@
         </is>
       </c>
       <c r="B345">
-        <v>88.15568889515977</v>
+        <v>88.155689</v>
       </c>
     </row>
     <row r="346">
@@ -3816,7 +3922,7 @@
         </is>
       </c>
       <c r="B346">
-        <v>88.96313522865192</v>
+        <v>88.96313499999999</v>
       </c>
     </row>
     <row r="347">
@@ -3826,7 +3932,7 @@
         </is>
       </c>
       <c r="B347">
-        <v>90.74979959018351</v>
+        <v>90.74979999999999</v>
       </c>
     </row>
     <row r="348">
@@ -3836,7 +3942,7 @@
         </is>
       </c>
       <c r="B348">
-        <v>91.0208761310089</v>
+        <v>91.020876</v>
       </c>
     </row>
     <row r="349">
@@ -3846,7 +3952,7 @@
         </is>
       </c>
       <c r="B349">
-        <v>89.18723067907185</v>
+        <v>89.187231</v>
       </c>
     </row>
     <row r="350">
@@ -3856,7 +3962,7 @@
         </is>
       </c>
       <c r="B350">
-        <v>87.79936826660676</v>
+        <v>87.799368</v>
       </c>
     </row>
     <row r="351">
@@ -3866,7 +3972,7 @@
         </is>
       </c>
       <c r="B351">
-        <v>89.69466170927308</v>
+        <v>89.69466199999999</v>
       </c>
     </row>
     <row r="352">
@@ -3876,7 +3982,7 @@
         </is>
       </c>
       <c r="B352">
-        <v>89.9970258081069</v>
+        <v>89.99702600000001</v>
       </c>
     </row>
     <row r="353">
@@ -3886,7 +3992,7 @@
         </is>
       </c>
       <c r="B353">
-        <v>88.87733441216309</v>
+        <v>88.877334</v>
       </c>
     </row>
     <row r="354">
@@ -3896,7 +4002,7 @@
         </is>
       </c>
       <c r="B354">
-        <v>88.59582483384524</v>
+        <v>88.595825</v>
       </c>
     </row>
     <row r="355">
@@ -3906,7 +4012,7 @@
         </is>
       </c>
       <c r="B355">
-        <v>89.10489932819195</v>
+        <v>89.104899</v>
       </c>
     </row>
     <row r="356">
@@ -3916,7 +4022,7 @@
         </is>
       </c>
       <c r="B356">
-        <v>88.57246798259047</v>
+        <v>88.572468</v>
       </c>
     </row>
     <row r="357">
@@ -3926,7 +4032,7 @@
         </is>
       </c>
       <c r="B357">
-        <v>88.38128574479576</v>
+        <v>88.381286</v>
       </c>
     </row>
     <row r="358">
@@ -3936,7 +4042,7 @@
         </is>
       </c>
       <c r="B358">
-        <v>89.3228875116486</v>
+        <v>89.32288800000001</v>
       </c>
     </row>
     <row r="359">
@@ -3946,7 +4052,7 @@
         </is>
       </c>
       <c r="B359">
-        <v>88.64611144546302</v>
+        <v>88.646111</v>
       </c>
     </row>
     <row r="360">
@@ -3956,7 +4062,7 @@
         </is>
       </c>
       <c r="B360">
-        <v>88.99472143207302</v>
+        <v>88.994721</v>
       </c>
     </row>
     <row r="361">
@@ -3966,7 +4072,7 @@
         </is>
       </c>
       <c r="B361">
-        <v>90.25692125360382</v>
+        <v>90.25692100000001</v>
       </c>
     </row>
     <row r="362">
@@ -3976,7 +4082,7 @@
         </is>
       </c>
       <c r="B362">
-        <v>90.76192792417382</v>
+        <v>90.761928</v>
       </c>
     </row>
     <row r="363">
@@ -3986,7 +4092,7 @@
         </is>
       </c>
       <c r="B363">
-        <v>90.78535919493176</v>
+        <v>90.785359</v>
       </c>
     </row>
     <row r="364">
@@ -3996,7 +4102,7 @@
         </is>
       </c>
       <c r="B364">
-        <v>89.96046818281609</v>
+        <v>89.96046800000001</v>
       </c>
     </row>
     <row r="365">
@@ -4006,7 +4112,7 @@
         </is>
       </c>
       <c r="B365">
-        <v>89.76764969634408</v>
+        <v>89.76765</v>
       </c>
     </row>
     <row r="366">
@@ -4016,7 +4122,7 @@
         </is>
       </c>
       <c r="B366">
-        <v>91.67383483710459</v>
+        <v>91.673835</v>
       </c>
     </row>
     <row r="367">
@@ -4026,7 +4132,7 @@
         </is>
       </c>
       <c r="B367">
-        <v>91.49416462048455</v>
+        <v>91.494165</v>
       </c>
     </row>
     <row r="368">
@@ -4036,7 +4142,7 @@
         </is>
       </c>
       <c r="B368">
-        <v>92.29616221856671</v>
+        <v>92.296162</v>
       </c>
     </row>
     <row r="369">
@@ -4046,7 +4152,7 @@
         </is>
       </c>
       <c r="B369">
-        <v>92.27040349811332</v>
+        <v>92.270403</v>
       </c>
     </row>
     <row r="370">
@@ -4056,7 +4162,7 @@
         </is>
       </c>
       <c r="B370">
-        <v>92.47202413853401</v>
+        <v>92.472024</v>
       </c>
     </row>
     <row r="371">
@@ -4066,7 +4172,7 @@
         </is>
       </c>
       <c r="B371">
-        <v>92.66011180380895</v>
+        <v>92.660112</v>
       </c>
     </row>
     <row r="372">
@@ -4076,7 +4182,7 @@
         </is>
       </c>
       <c r="B372">
-        <v>92.78256125018169</v>
+        <v>92.782561</v>
       </c>
     </row>
     <row r="373">
@@ -4086,7 +4192,7 @@
         </is>
       </c>
       <c r="B373">
-        <v>91.4035136712602</v>
+        <v>91.403514</v>
       </c>
     </row>
     <row r="374">
@@ -4096,7 +4202,7 @@
         </is>
       </c>
       <c r="B374">
-        <v>92.60774164278418</v>
+        <v>92.607742</v>
       </c>
     </row>
     <row r="375">
@@ -4106,7 +4212,7 @@
         </is>
       </c>
       <c r="B375">
-        <v>92.56242735304551</v>
+        <v>92.562427</v>
       </c>
     </row>
     <row r="376">
@@ -4116,7 +4222,7 @@
         </is>
       </c>
       <c r="B376">
-        <v>93.45687467433476</v>
+        <v>93.456875</v>
       </c>
     </row>
     <row r="377">
@@ -4126,7 +4232,7 @@
         </is>
       </c>
       <c r="B377">
-        <v>92.68893506005111</v>
+        <v>92.688935</v>
       </c>
     </row>
     <row r="378">
@@ -4136,7 +4242,7 @@
         </is>
       </c>
       <c r="B378">
-        <v>90.91504538905745</v>
+        <v>90.91504500000001</v>
       </c>
     </row>
     <row r="379">
@@ -4146,7 +4252,7 @@
         </is>
       </c>
       <c r="B379">
-        <v>90.52430091867889</v>
+        <v>90.52430099999999</v>
       </c>
     </row>
     <row r="380">
@@ -4156,7 +4262,7 @@
         </is>
       </c>
       <c r="B380">
-        <v>90.56331738656445</v>
+        <v>90.563317</v>
       </c>
     </row>
     <row r="381">
@@ -4166,7 +4272,7 @@
         </is>
       </c>
       <c r="B381">
-        <v>90.70867866712537</v>
+        <v>90.708679</v>
       </c>
     </row>
     <row r="382">
@@ -4176,7 +4282,7 @@
         </is>
       </c>
       <c r="B382">
-        <v>90.45280168759318</v>
+        <v>90.45280200000001</v>
       </c>
     </row>
     <row r="383">
@@ -4186,7 +4292,7 @@
         </is>
       </c>
       <c r="B383">
-        <v>89.61163134476705</v>
+        <v>89.611631</v>
       </c>
     </row>
     <row r="384">
@@ -4196,7 +4302,7 @@
         </is>
       </c>
       <c r="B384">
-        <v>88.97633719892181</v>
+        <v>88.976337</v>
       </c>
     </row>
     <row r="385">
@@ -4206,7 +4312,7 @@
         </is>
       </c>
       <c r="B385">
-        <v>88.92278175489321</v>
+        <v>88.922782</v>
       </c>
     </row>
     <row r="386">
@@ -4216,7 +4322,7 @@
         </is>
       </c>
       <c r="B386">
-        <v>89.4828244049248</v>
+        <v>89.48282399999999</v>
       </c>
     </row>
     <row r="387">
@@ -4226,7 +4332,7 @@
         </is>
       </c>
       <c r="B387">
-        <v>90.05839646501023</v>
+        <v>90.058396</v>
       </c>
     </row>
     <row r="388">
@@ -4236,7 +4342,7 @@
         </is>
       </c>
       <c r="B388">
-        <v>88.91345060273868</v>
+        <v>88.91345099999999</v>
       </c>
     </row>
     <row r="389">
@@ -4246,7 +4352,7 @@
         </is>
       </c>
       <c r="B389">
-        <v>89.44739790447598</v>
+        <v>89.44739800000001</v>
       </c>
     </row>
     <row r="390">
@@ -4256,7 +4362,7 @@
         </is>
       </c>
       <c r="B390">
-        <v>89.24105977811075</v>
+        <v>89.24106</v>
       </c>
     </row>
     <row r="391">
@@ -4266,7 +4372,7 @@
         </is>
       </c>
       <c r="B391">
-        <v>89.8177053626185</v>
+        <v>89.817705</v>
       </c>
     </row>
     <row r="392">
@@ -4276,7 +4382,7 @@
         </is>
       </c>
       <c r="B392">
-        <v>89.33066925582531</v>
+        <v>89.330669</v>
       </c>
     </row>
     <row r="393">
@@ -4286,7 +4392,7 @@
         </is>
       </c>
       <c r="B393">
-        <v>88.51451282547879</v>
+        <v>88.51451299999999</v>
       </c>
     </row>
     <row r="394">
@@ -4296,7 +4402,7 @@
         </is>
       </c>
       <c r="B394">
-        <v>89.55750902948793</v>
+        <v>89.557509</v>
       </c>
     </row>
     <row r="395">
@@ -4306,7 +4412,7 @@
         </is>
       </c>
       <c r="B395">
-        <v>90.22103296055394</v>
+        <v>90.22103300000001</v>
       </c>
     </row>
     <row r="396">
@@ -4316,7 +4422,7 @@
         </is>
       </c>
       <c r="B396">
-        <v>89.31819478053558</v>
+        <v>89.318195</v>
       </c>
     </row>
     <row r="397">
@@ -4326,7 +4432,7 @@
         </is>
       </c>
       <c r="B397">
-        <v>91.2418045714283</v>
+        <v>91.241805</v>
       </c>
     </row>
     <row r="398">
@@ -4336,7 +4442,7 @@
         </is>
       </c>
       <c r="B398">
-        <v>92.05404937062796</v>
+        <v>92.05404900000001</v>
       </c>
     </row>
     <row r="399">
@@ -4346,7 +4452,7 @@
         </is>
       </c>
       <c r="B399">
-        <v>91.64049875896403</v>
+        <v>91.64049900000001</v>
       </c>
     </row>
     <row r="400">
@@ -4356,7 +4462,7 @@
         </is>
       </c>
       <c r="B400">
-        <v>93.34005536905279</v>
+        <v>93.34005500000001</v>
       </c>
     </row>
     <row r="401">
@@ -4366,7 +4472,7 @@
         </is>
       </c>
       <c r="B401">
-        <v>92.69502966166685</v>
+        <v>92.69503</v>
       </c>
     </row>
     <row r="402">
@@ -4376,7 +4482,7 @@
         </is>
       </c>
       <c r="B402">
-        <v>92.87737046616567</v>
+        <v>92.87737</v>
       </c>
     </row>
     <row r="403">
@@ -4386,7 +4492,7 @@
         </is>
       </c>
       <c r="B403">
-        <v>91.89837398315962</v>
+        <v>91.898374</v>
       </c>
     </row>
     <row r="404">
@@ -4396,7 +4502,7 @@
         </is>
       </c>
       <c r="B404">
-        <v>91.54343045018211</v>
+        <v>91.54343</v>
       </c>
     </row>
     <row r="405">
@@ -4406,7 +4512,7 @@
         </is>
       </c>
       <c r="B405">
-        <v>91.87944054759315</v>
+        <v>91.879441</v>
       </c>
     </row>
     <row r="406">
@@ -4416,7 +4522,7 @@
         </is>
       </c>
       <c r="B406">
-        <v>91.4996508136221</v>
+        <v>91.499651</v>
       </c>
     </row>
     <row r="407">
@@ -4426,7 +4532,7 @@
         </is>
       </c>
       <c r="B407">
-        <v>90.85038568860449</v>
+        <v>90.850386</v>
       </c>
     </row>
     <row r="408">
@@ -4436,7 +4542,7 @@
         </is>
       </c>
       <c r="B408">
-        <v>92.71787476265389</v>
+        <v>92.71787500000001</v>
       </c>
     </row>
     <row r="409">
@@ -4446,7 +4552,7 @@
         </is>
       </c>
       <c r="B409">
-        <v>92.03449396013448</v>
+        <v>92.034494</v>
       </c>
     </row>
     <row r="410">
@@ -4456,7 +4562,7 @@
         </is>
       </c>
       <c r="B410">
-        <v>93.1511186617268</v>
+        <v>93.15111899999999</v>
       </c>
     </row>
     <row r="411">
@@ -4466,7 +4572,7 @@
         </is>
       </c>
       <c r="B411">
-        <v>90.7890515067735</v>
+        <v>90.789052</v>
       </c>
     </row>
     <row r="412">
@@ -4476,7 +4582,7 @@
         </is>
       </c>
       <c r="B412">
-        <v>92.28876005345245</v>
+        <v>92.28876</v>
       </c>
     </row>
     <row r="413">
@@ -4486,7 +4592,7 @@
         </is>
       </c>
       <c r="B413">
-        <v>90.90097994503125</v>
+        <v>90.90098</v>
       </c>
     </row>
     <row r="414">
@@ -4496,7 +4602,7 @@
         </is>
       </c>
       <c r="B414">
-        <v>90.55359591156277</v>
+        <v>90.553596</v>
       </c>
     </row>
     <row r="415">
@@ -4506,7 +4612,7 @@
         </is>
       </c>
       <c r="B415">
-        <v>90.67994566405726</v>
+        <v>90.679946</v>
       </c>
     </row>
     <row r="416">
@@ -4516,7 +4622,7 @@
         </is>
       </c>
       <c r="B416">
-        <v>90.55509253009768</v>
+        <v>90.555093</v>
       </c>
     </row>
     <row r="417">
@@ -4526,7 +4632,7 @@
         </is>
       </c>
       <c r="B417">
-        <v>91.15533332167774</v>
+        <v>91.155333</v>
       </c>
     </row>
     <row r="418">
@@ -4536,7 +4642,7 @@
         </is>
       </c>
       <c r="B418">
-        <v>91.27412976077768</v>
+        <v>91.27413</v>
       </c>
     </row>
     <row r="419">
@@ -4546,7 +4652,7 @@
         </is>
       </c>
       <c r="B419">
-        <v>91.17108268181437</v>
+        <v>91.171083</v>
       </c>
     </row>
     <row r="420">
@@ -4556,7 +4662,7 @@
         </is>
       </c>
       <c r="B420">
-        <v>91.91495337491973</v>
+        <v>91.914953</v>
       </c>
     </row>
     <row r="421">
@@ -4566,7 +4672,7 @@
         </is>
       </c>
       <c r="B421">
-        <v>90.36669686988287</v>
+        <v>90.366697</v>
       </c>
     </row>
     <row r="422">
@@ -4576,7 +4682,7 @@
         </is>
       </c>
       <c r="B422">
-        <v>89.75407113357679</v>
+        <v>89.754071</v>
       </c>
     </row>
     <row r="423">
@@ -4586,7 +4692,7 @@
         </is>
       </c>
       <c r="B423">
-        <v>89.09700404430858</v>
+        <v>89.097004</v>
       </c>
     </row>
     <row r="424">
@@ -4596,7 +4702,7 @@
         </is>
       </c>
       <c r="B424">
-        <v>89.59850137985239</v>
+        <v>89.598501</v>
       </c>
     </row>
     <row r="425">
@@ -4606,7 +4712,7 @@
         </is>
       </c>
       <c r="B425">
-        <v>88.88543458730686</v>
+        <v>88.885435</v>
       </c>
     </row>
     <row r="426">
@@ -4616,7 +4722,7 @@
         </is>
       </c>
       <c r="B426">
-        <v>90.76508850789668</v>
+        <v>90.765089</v>
       </c>
     </row>
     <row r="427">
@@ -4626,7 +4732,7 @@
         </is>
       </c>
       <c r="B427">
-        <v>90.88792524770832</v>
+        <v>90.887925</v>
       </c>
     </row>
     <row r="428">
@@ -4636,7 +4742,7 @@
         </is>
       </c>
       <c r="B428">
-        <v>90.37268915293097</v>
+        <v>90.37268899999999</v>
       </c>
     </row>
     <row r="429">
@@ -4646,7 +4752,7 @@
         </is>
       </c>
       <c r="B429">
-        <v>90.08226747845769</v>
+        <v>90.082267</v>
       </c>
     </row>
     <row r="430">
@@ -4656,7 +4762,7 @@
         </is>
       </c>
       <c r="B430">
-        <v>91.57078109200589</v>
+        <v>91.570781</v>
       </c>
     </row>
     <row r="431">
@@ -4666,7 +4772,7 @@
         </is>
       </c>
       <c r="B431">
-        <v>92.67410413709473</v>
+        <v>92.674104</v>
       </c>
     </row>
     <row r="432">
@@ -4676,7 +4782,7 @@
         </is>
       </c>
       <c r="B432">
-        <v>92.65467152107205</v>
+        <v>92.65467200000001</v>
       </c>
     </row>
     <row r="433">
@@ -4686,7 +4792,7 @@
         </is>
       </c>
       <c r="B433">
-        <v>91.48822006474992</v>
+        <v>91.48822</v>
       </c>
     </row>
     <row r="434">
@@ -4696,7 +4802,7 @@
         </is>
       </c>
       <c r="B434">
-        <v>90.54122194023111</v>
+        <v>90.541222</v>
       </c>
     </row>
     <row r="435">
@@ -4706,7 +4812,7 @@
         </is>
       </c>
       <c r="B435">
-        <v>90.55073317650603</v>
+        <v>90.55073299999999</v>
       </c>
     </row>
     <row r="436">
@@ -4716,7 +4822,7 @@
         </is>
       </c>
       <c r="B436">
-        <v>90.98611919146504</v>
+        <v>90.986119</v>
       </c>
     </row>
     <row r="437">
@@ -4726,7 +4832,7 @@
         </is>
       </c>
       <c r="B437">
-        <v>90.74453892930606</v>
+        <v>90.744539</v>
       </c>
     </row>
     <row r="438">
@@ -4736,7 +4842,7 @@
         </is>
       </c>
       <c r="B438">
-        <v>91.41054717123606</v>
+        <v>91.41054699999999</v>
       </c>
     </row>
     <row r="439">
@@ -4746,7 +4852,7 @@
         </is>
       </c>
       <c r="B439">
-        <v>90.60510714258679</v>
+        <v>90.605107</v>
       </c>
     </row>
     <row r="440">
@@ -4756,7 +4862,7 @@
         </is>
       </c>
       <c r="B440">
-        <v>90.17778479767624</v>
+        <v>90.177785</v>
       </c>
     </row>
     <row r="441">
@@ -4766,7 +4872,7 @@
         </is>
       </c>
       <c r="B441">
-        <v>91.33883916236661</v>
+        <v>91.33883899999999</v>
       </c>
     </row>
     <row r="442">
@@ -4776,7 +4882,7 @@
         </is>
       </c>
       <c r="B442">
-        <v>91.45429070170312</v>
+        <v>91.454291</v>
       </c>
     </row>
     <row r="443">
@@ -4786,7 +4892,7 @@
         </is>
       </c>
       <c r="B443">
-        <v>90.41990373732649</v>
+        <v>90.419904</v>
       </c>
     </row>
     <row r="444">
@@ -4796,7 +4902,7 @@
         </is>
       </c>
       <c r="B444">
-        <v>91.26615059119736</v>
+        <v>91.26615099999999</v>
       </c>
     </row>
     <row r="445">
@@ -4806,7 +4912,7 @@
         </is>
       </c>
       <c r="B445">
-        <v>91.47681181548589</v>
+        <v>91.476812</v>
       </c>
     </row>
     <row r="446">
@@ -4816,7 +4922,7 @@
         </is>
       </c>
       <c r="B446">
-        <v>90.89397421413827</v>
+        <v>90.893974</v>
       </c>
     </row>
     <row r="447">
@@ -4826,7 +4932,7 @@
         </is>
       </c>
       <c r="B447">
-        <v>90.99627541691565</v>
+        <v>90.996275</v>
       </c>
     </row>
     <row r="448">
@@ -4836,7 +4942,7 @@
         </is>
       </c>
       <c r="B448">
-        <v>91.65483759262145</v>
+        <v>91.654838</v>
       </c>
     </row>
     <row r="449">
@@ -4846,7 +4952,7 @@
         </is>
       </c>
       <c r="B449">
-        <v>91.43605981240515</v>
+        <v>91.43606</v>
       </c>
     </row>
     <row r="450">
@@ -4856,7 +4962,7 @@
         </is>
       </c>
       <c r="B450">
-        <v>91.24849774700986</v>
+        <v>91.248498</v>
       </c>
     </row>
     <row r="451">
@@ -4866,7 +4972,7 @@
         </is>
       </c>
       <c r="B451">
-        <v>90.9110950826979</v>
+        <v>90.911095</v>
       </c>
     </row>
     <row r="452">
@@ -4876,7 +4982,7 @@
         </is>
       </c>
       <c r="B452">
-        <v>90.60526493488103</v>
+        <v>90.605265</v>
       </c>
     </row>
     <row r="453">
@@ -4886,7 +4992,7 @@
         </is>
       </c>
       <c r="B453">
-        <v>91.08000277261509</v>
+        <v>91.080003</v>
       </c>
     </row>
     <row r="454">
@@ -4896,7 +5002,7 @@
         </is>
       </c>
       <c r="B454">
-        <v>92.27687575574554</v>
+        <v>92.276876</v>
       </c>
     </row>
     <row r="455">
@@ -4906,7 +5012,7 @@
         </is>
       </c>
       <c r="B455">
-        <v>90.12167454725099</v>
+        <v>90.121675</v>
       </c>
     </row>
     <row r="456">
@@ -4916,7 +5022,7 @@
         </is>
       </c>
       <c r="B456">
-        <v>89.70550123783806</v>
+        <v>89.705501</v>
       </c>
     </row>
     <row r="457">
@@ -4926,7 +5032,7 @@
         </is>
       </c>
       <c r="B457">
-        <v>90.0858731329353</v>
+        <v>90.08587300000001</v>
       </c>
     </row>
     <row r="458">
@@ -4936,7 +5042,7 @@
         </is>
       </c>
       <c r="B458">
-        <v>90.27967262839151</v>
+        <v>90.279673</v>
       </c>
     </row>
     <row r="459">
@@ -4946,7 +5052,7 @@
         </is>
       </c>
       <c r="B459">
-        <v>90.9527027415869</v>
+        <v>90.952703</v>
       </c>
     </row>
     <row r="460">
@@ -4956,7 +5062,7 @@
         </is>
       </c>
       <c r="B460">
-        <v>91.72326459296357</v>
+        <v>91.723265</v>
       </c>
     </row>
     <row r="461">
@@ -4966,7 +5072,7 @@
         </is>
       </c>
       <c r="B461">
-        <v>92.3867132298578</v>
+        <v>92.386713</v>
       </c>
     </row>
     <row r="462">
@@ -4976,7 +5082,7 @@
         </is>
       </c>
       <c r="B462">
-        <v>93.11568415370495</v>
+        <v>93.115684</v>
       </c>
     </row>
     <row r="463">
@@ -4986,7 +5092,7 @@
         </is>
       </c>
       <c r="B463">
-        <v>92.653901566549</v>
+        <v>92.653902</v>
       </c>
     </row>
     <row r="464">
@@ -4996,7 +5102,7 @@
         </is>
       </c>
       <c r="B464">
-        <v>91.85508057238518</v>
+        <v>91.855081</v>
       </c>
     </row>
     <row r="465">
@@ -5006,7 +5112,7 @@
         </is>
       </c>
       <c r="B465">
-        <v>91.97577794029026</v>
+        <v>91.97577800000001</v>
       </c>
     </row>
     <row r="466">
@@ -5016,7 +5122,7 @@
         </is>
       </c>
       <c r="B466">
-        <v>90.74388013570832</v>
+        <v>90.74388</v>
       </c>
     </row>
     <row r="467">
@@ -5026,7 +5132,7 @@
         </is>
       </c>
       <c r="B467">
-        <v>91.53950078135958</v>
+        <v>91.539501</v>
       </c>
     </row>
     <row r="468">
@@ -5036,7 +5142,7 @@
         </is>
       </c>
       <c r="B468">
-        <v>91.44188190686863</v>
+        <v>91.44188200000001</v>
       </c>
     </row>
     <row r="469">
@@ -5046,7 +5152,7 @@
         </is>
       </c>
       <c r="B469">
-        <v>90.96443672974944</v>
+        <v>90.964437</v>
       </c>
     </row>
     <row r="470">
@@ -5056,7 +5162,7 @@
         </is>
       </c>
       <c r="B470">
-        <v>91.44657788024965</v>
+        <v>91.446578</v>
       </c>
     </row>
     <row r="471">
@@ -5066,7 +5172,7 @@
         </is>
       </c>
       <c r="B471">
-        <v>91.34703256187089</v>
+        <v>91.347033</v>
       </c>
     </row>
     <row r="472">
@@ -5076,7 +5182,7 @@
         </is>
       </c>
       <c r="B472">
-        <v>91.58739874730732</v>
+        <v>91.587399</v>
       </c>
     </row>
     <row r="473">
@@ -5086,7 +5192,7 @@
         </is>
       </c>
       <c r="B473">
-        <v>91.87503769084341</v>
+        <v>91.875038</v>
       </c>
     </row>
     <row r="474">
@@ -5096,7 +5202,7 @@
         </is>
       </c>
       <c r="B474">
-        <v>92.36984418816127</v>
+        <v>92.369844</v>
       </c>
     </row>
     <row r="475">
@@ -5106,7 +5212,7 @@
         </is>
       </c>
       <c r="B475">
-        <v>92.97029937145506</v>
+        <v>92.970299</v>
       </c>
     </row>
     <row r="476">
@@ -5116,7 +5222,7 @@
         </is>
       </c>
       <c r="B476">
-        <v>92.05446871020348</v>
+        <v>92.054469</v>
       </c>
     </row>
     <row r="477">
@@ -5126,7 +5232,7 @@
         </is>
       </c>
       <c r="B477">
-        <v>93.56891680309272</v>
+        <v>93.568917</v>
       </c>
     </row>
     <row r="478">
@@ -5136,7 +5242,7 @@
         </is>
       </c>
       <c r="B478">
-        <v>95.09802550089969</v>
+        <v>95.098026</v>
       </c>
     </row>
     <row r="479">
@@ -5146,7 +5252,7 @@
         </is>
       </c>
       <c r="B479">
-        <v>96.29688131081561</v>
+        <v>96.296881</v>
       </c>
     </row>
     <row r="480">
@@ -5156,7 +5262,7 @@
         </is>
       </c>
       <c r="B480">
-        <v>98.43926188418793</v>
+        <v>98.439262</v>
       </c>
     </row>
     <row r="481">
@@ -5166,7 +5272,7 @@
         </is>
       </c>
       <c r="B481">
-        <v>98.70097615325201</v>
+        <v>98.700976</v>
       </c>
     </row>
     <row r="482">
@@ -5176,7 +5282,7 @@
         </is>
       </c>
       <c r="B482">
-        <v>98.33183279771143</v>
+        <v>98.331833</v>
       </c>
     </row>
     <row r="483">
@@ -5186,7 +5292,7 @@
         </is>
       </c>
       <c r="B483">
-        <v>98.78942092760863</v>
+        <v>98.789421</v>
       </c>
     </row>
     <row r="484">
@@ -5196,7 +5302,7 @@
         </is>
       </c>
       <c r="B484">
-        <v>99.55042230372432</v>
+        <v>99.550422</v>
       </c>
     </row>
     <row r="485">
@@ -5206,7 +5312,7 @@
         </is>
       </c>
       <c r="B485">
-        <v>100.0530085610604</v>
+        <v>100.053009</v>
       </c>
     </row>
     <row r="486">
@@ -5216,7 +5322,7 @@
         </is>
       </c>
       <c r="B486">
-        <v>100.7117501357991</v>
+        <v>100.71175</v>
       </c>
     </row>
     <row r="487">
@@ -5226,7 +5332,7 @@
         </is>
       </c>
       <c r="B487">
-        <v>101.1293127799711</v>
+        <v>101.129313</v>
       </c>
     </row>
     <row r="488">
@@ -5236,7 +5342,7 @@
         </is>
       </c>
       <c r="B488">
-        <v>100.7369836024292</v>
+        <v>100.736984</v>
       </c>
     </row>
     <row r="489">
@@ -5246,7 +5352,7 @@
         </is>
       </c>
       <c r="B489">
-        <v>101.5352828502976</v>
+        <v>101.535283</v>
       </c>
     </row>
     <row r="490">
@@ -5256,7 +5362,7 @@
         </is>
       </c>
       <c r="B490">
-        <v>101.4510374254782</v>
+        <v>101.451037</v>
       </c>
     </row>
     <row r="491">
@@ -5266,7 +5372,7 @@
         </is>
       </c>
       <c r="B491">
-        <v>101.1837699816885</v>
+        <v>101.18377</v>
       </c>
     </row>
     <row r="492">
@@ -5276,7 +5382,7 @@
         </is>
       </c>
       <c r="B492">
-        <v>102.6913663178925</v>
+        <v>102.691366</v>
       </c>
     </row>
     <row r="493">
@@ -5286,7 +5392,7 @@
         </is>
       </c>
       <c r="B493">
-        <v>103.3730952038046</v>
+        <v>103.373095</v>
       </c>
     </row>
     <row r="494">
@@ -5296,7 +5402,7 @@
         </is>
       </c>
       <c r="B494">
-        <v>101.9773783704626</v>
+        <v>101.977378</v>
       </c>
     </row>
     <row r="495">
@@ -5306,7 +5412,7 @@
         </is>
       </c>
       <c r="B495">
-        <v>100.3765960784816</v>
+        <v>100.376596</v>
       </c>
     </row>
     <row r="496">
@@ -5316,7 +5422,7 @@
         </is>
       </c>
       <c r="B496">
-        <v>101.822641535378</v>
+        <v>101.822642</v>
       </c>
     </row>
     <row r="497">
@@ -5326,7 +5432,7 @@
         </is>
       </c>
       <c r="B497">
-        <v>100.9249038371525</v>
+        <v>100.924904</v>
       </c>
     </row>
     <row r="498">
@@ -5336,7 +5442,7 @@
         </is>
       </c>
       <c r="B498">
-        <v>100.7657416312253</v>
+        <v>100.765742</v>
       </c>
     </row>
     <row r="499">
@@ -5346,7 +5452,7 @@
         </is>
       </c>
       <c r="B499">
-        <v>100.5314313410169</v>
+        <v>100.531431</v>
       </c>
     </row>
     <row r="500">
@@ -5356,7 +5462,7 @@
         </is>
       </c>
       <c r="B500">
-        <v>99.63392412999129</v>
+        <v>99.63392399999999</v>
       </c>
     </row>
     <row r="501">
@@ -5366,7 +5472,7 @@
         </is>
       </c>
       <c r="B501">
-        <v>99.53554322660247</v>
+        <v>99.535543</v>
       </c>
     </row>
     <row r="502">
@@ -5376,7 +5482,7 @@
         </is>
       </c>
       <c r="B502">
-        <v>99.48180361617328</v>
+        <v>99.481804</v>
       </c>
     </row>
     <row r="503">
@@ -5386,7 +5492,7 @@
         </is>
       </c>
       <c r="B503">
-        <v>98.89352641278695</v>
+        <v>98.89352599999999</v>
       </c>
     </row>
     <row r="504">
@@ -5396,7 +5502,7 @@
         </is>
       </c>
       <c r="B504">
-        <v>98.50585693351316</v>
+        <v>98.50585700000001</v>
       </c>
     </row>
     <row r="505">
@@ -5406,7 +5512,7 @@
         </is>
       </c>
       <c r="B505">
-        <v>98.79456057321811</v>
+        <v>98.794561</v>
       </c>
     </row>
     <row r="506">
@@ -5416,7 +5522,7 @@
         </is>
       </c>
       <c r="B506">
-        <v>99.17259720545691</v>
+        <v>99.172597</v>
       </c>
     </row>
     <row r="507">
@@ -5426,7 +5532,7 @@
         </is>
       </c>
       <c r="B507">
-        <v>99.17872458452163</v>
+        <v>99.178725</v>
       </c>
     </row>
     <row r="508">
@@ -5436,7 +5542,7 @@
         </is>
       </c>
       <c r="B508">
-        <v>98.90171264524675</v>
+        <v>98.901713</v>
       </c>
     </row>
     <row r="509">
@@ -5446,7 +5552,7 @@
         </is>
       </c>
       <c r="B509">
-        <v>98.09051252056462</v>
+        <v>98.090513</v>
       </c>
     </row>
     <row r="510">
@@ -5456,7 +5562,7 @@
         </is>
       </c>
       <c r="B510">
-        <v>98.66827842981868</v>
+        <v>98.668278</v>
       </c>
     </row>
     <row r="511">
@@ -5466,7 +5572,7 @@
         </is>
       </c>
       <c r="B511">
-        <v>98.31024673675948</v>
+        <v>98.310247</v>
       </c>
     </row>
     <row r="512">
@@ -5476,7 +5582,7 @@
         </is>
       </c>
       <c r="B512">
-        <v>96.52060238502671</v>
+        <v>96.520602</v>
       </c>
     </row>
     <row r="513">
@@ -5486,7 +5592,7 @@
         </is>
       </c>
       <c r="B513">
-        <v>96.50723637267286</v>
+        <v>96.50723600000001</v>
       </c>
     </row>
     <row r="514">
@@ -5496,7 +5602,7 @@
         </is>
       </c>
       <c r="B514">
-        <v>96.86798698384167</v>
+        <v>96.867987</v>
       </c>
     </row>
     <row r="515">
@@ -5506,7 +5612,7 @@
         </is>
       </c>
       <c r="B515">
-        <v>96.72419347225492</v>
+        <v>96.724193</v>
       </c>
     </row>
     <row r="516">
@@ -5516,7 +5622,7 @@
         </is>
       </c>
       <c r="B516">
-        <v>94.8890421238782</v>
+        <v>94.889042</v>
       </c>
     </row>
     <row r="517">
@@ -5526,7 +5632,7 @@
         </is>
       </c>
       <c r="B517">
-        <v>94.89726727669951</v>
+        <v>94.897267</v>
       </c>
     </row>
     <row r="518">
@@ -5536,7 +5642,7 @@
         </is>
       </c>
       <c r="B518">
-        <v>96.123865658543</v>
+        <v>96.12386600000001</v>
       </c>
     </row>
     <row r="519">
@@ -5546,7 +5652,7 @@
         </is>
       </c>
       <c r="B519">
-        <v>94.66220254299556</v>
+        <v>94.66220300000001</v>
       </c>
     </row>
     <row r="520">
@@ -5556,7 +5662,7 @@
         </is>
       </c>
       <c r="B520">
-        <v>94.27490812198154</v>
+        <v>94.274908</v>
       </c>
     </row>
     <row r="521">
@@ -5566,7 +5672,7 @@
         </is>
       </c>
       <c r="B521">
-        <v>94.20149708020544</v>
+        <v>94.201497</v>
       </c>
     </row>
     <row r="522">
@@ -5576,7 +5682,7 @@
         </is>
       </c>
       <c r="B522">
-        <v>93.83646432742249</v>
+        <v>93.83646400000001</v>
       </c>
     </row>
     <row r="523">
@@ -5586,7 +5692,7 @@
         </is>
       </c>
       <c r="B523">
-        <v>93.56492256145268</v>
+        <v>93.56492299999999</v>
       </c>
     </row>
     <row r="524">
@@ -5596,7 +5702,7 @@
         </is>
       </c>
       <c r="B524">
-        <v>93.67642854331865</v>
+        <v>93.676429</v>
       </c>
     </row>
     <row r="525">
@@ -5606,7 +5712,7 @@
         </is>
       </c>
       <c r="B525">
-        <v>91.8977997294862</v>
+        <v>91.8978</v>
       </c>
     </row>
     <row r="526">
@@ -5616,7 +5722,7 @@
         </is>
       </c>
       <c r="B526">
-        <v>91.74874971587101</v>
+        <v>91.74875</v>
       </c>
     </row>
     <row r="527">
@@ -5626,7 +5732,7 @@
         </is>
       </c>
       <c r="B527">
-        <v>90.79918289061395</v>
+        <v>90.799183</v>
       </c>
     </row>
     <row r="528">
@@ -5636,7 +5742,7 @@
         </is>
       </c>
       <c r="B528">
-        <v>90.60827022257044</v>
+        <v>90.60827</v>
       </c>
     </row>
     <row r="529">
@@ -5646,7 +5752,7 @@
         </is>
       </c>
       <c r="B529">
-        <v>91.27421997973626</v>
+        <v>91.27422</v>
       </c>
     </row>
     <row r="530">
@@ -5656,7 +5762,7 @@
         </is>
       </c>
       <c r="B530">
-        <v>91.43892877403313</v>
+        <v>91.438929</v>
       </c>
     </row>
     <row r="531">
@@ -5666,7 +5772,7 @@
         </is>
       </c>
       <c r="B531">
-        <v>92.08911424095567</v>
+        <v>92.089114</v>
       </c>
     </row>
     <row r="532">
@@ -5676,7 +5782,7 @@
         </is>
       </c>
       <c r="B532">
-        <v>91.98295275016007</v>
+        <v>91.98295299999999</v>
       </c>
     </row>
     <row r="533">
@@ -5686,7 +5792,7 @@
         </is>
       </c>
       <c r="B533">
-        <v>90.74422128423721</v>
+        <v>90.744221</v>
       </c>
     </row>
     <row r="534">
@@ -5696,7 +5802,7 @@
         </is>
       </c>
       <c r="B534">
-        <v>91.22170555166073</v>
+        <v>91.221706</v>
       </c>
     </row>
     <row r="535">
@@ -5706,7 +5812,7 @@
         </is>
       </c>
       <c r="B535">
-        <v>90.18072035015295</v>
+        <v>90.18071999999999</v>
       </c>
     </row>
     <row r="536">
@@ -5716,7 +5822,7 @@
         </is>
       </c>
       <c r="B536">
-        <v>89.66092804389305</v>
+        <v>89.660928</v>
       </c>
     </row>
     <row r="537">
@@ -5726,7 +5832,7 @@
         </is>
       </c>
       <c r="B537">
-        <v>89.24032999882692</v>
+        <v>89.24033</v>
       </c>
     </row>
     <row r="538">
@@ -5736,7 +5842,7 @@
         </is>
       </c>
       <c r="B538">
-        <v>89.18276704319302</v>
+        <v>89.182767</v>
       </c>
     </row>
     <row r="539">
@@ -5746,7 +5852,7 @@
         </is>
       </c>
       <c r="B539">
-        <v>88.77249793486308</v>
+        <v>88.772498</v>
       </c>
     </row>
     <row r="540">
@@ -5756,7 +5862,7 @@
         </is>
       </c>
       <c r="B540">
-        <v>88.64748291047525</v>
+        <v>88.64748299999999</v>
       </c>
     </row>
     <row r="541">
@@ -5766,7 +5872,7 @@
         </is>
       </c>
       <c r="B541">
-        <v>88.30576553958115</v>
+        <v>88.30576600000001</v>
       </c>
     </row>
     <row r="542">
@@ -5776,7 +5882,7 @@
         </is>
       </c>
       <c r="B542">
-        <v>88.55456493765072</v>
+        <v>88.554565</v>
       </c>
     </row>
     <row r="543">
@@ -5786,7 +5892,7 @@
         </is>
       </c>
       <c r="B543">
-        <v>88.9426961032476</v>
+        <v>88.942696</v>
       </c>
     </row>
     <row r="544">
@@ -5796,7 +5902,7 @@
         </is>
       </c>
       <c r="B544">
-        <v>90.06855370402542</v>
+        <v>90.06855400000001</v>
       </c>
     </row>
     <row r="545">
@@ -5806,7 +5912,7 @@
         </is>
       </c>
       <c r="B545">
-        <v>88.81552098666683</v>
+        <v>88.815521</v>
       </c>
     </row>
     <row r="546">
@@ -5816,7 +5922,7 @@
         </is>
       </c>
       <c r="B546">
-        <v>90.55994892085322</v>
+        <v>90.559949</v>
       </c>
     </row>
     <row r="547">
@@ -5826,7 +5932,7 @@
         </is>
       </c>
       <c r="B547">
-        <v>89.9749690753399</v>
+        <v>89.974969</v>
       </c>
     </row>
     <row r="548">
@@ -5836,7 +5942,7 @@
         </is>
       </c>
       <c r="B548">
-        <v>91.35314511347656</v>
+        <v>91.353145</v>
       </c>
     </row>
     <row r="549">
@@ -5846,7 +5952,7 @@
         </is>
       </c>
       <c r="B549">
-        <v>91.68784479031288</v>
+        <v>91.687845</v>
       </c>
     </row>
     <row r="550">
@@ -5856,7 +5962,7 @@
         </is>
       </c>
       <c r="B550">
-        <v>92.53257024573941</v>
+        <v>92.53257000000001</v>
       </c>
     </row>
     <row r="551">
@@ -5866,7 +5972,7 @@
         </is>
       </c>
       <c r="B551">
-        <v>91.22427327000817</v>
+        <v>91.224273</v>
       </c>
     </row>
     <row r="552">
@@ -5876,7 +5982,7 @@
         </is>
       </c>
       <c r="B552">
-        <v>90.56014893718005</v>
+        <v>90.560149</v>
       </c>
     </row>
     <row r="553">
@@ -5886,7 +5992,7 @@
         </is>
       </c>
       <c r="B553">
-        <v>91.05439134009765</v>
+        <v>91.054391</v>
       </c>
     </row>
     <row r="554">
@@ -5896,7 +6002,7 @@
         </is>
       </c>
       <c r="B554">
-        <v>92.83650444267111</v>
+        <v>92.83650400000001</v>
       </c>
     </row>
     <row r="555">
@@ -5906,7 +6012,7 @@
         </is>
       </c>
       <c r="B555">
-        <v>92.86785526858918</v>
+        <v>92.86785500000001</v>
       </c>
     </row>
     <row r="556">
@@ -5916,7 +6022,7 @@
         </is>
       </c>
       <c r="B556">
-        <v>92.92581282924451</v>
+        <v>92.92581300000001</v>
       </c>
     </row>
     <row r="557">
@@ -5926,7 +6032,7 @@
         </is>
       </c>
       <c r="B557">
-        <v>93.93051069103163</v>
+        <v>93.930511</v>
       </c>
     </row>
     <row r="558">
@@ -5936,7 +6042,7 @@
         </is>
       </c>
       <c r="B558">
-        <v>94.18793167130282</v>
+        <v>94.187932</v>
       </c>
     </row>
     <row r="559">
@@ -5946,7 +6052,7 @@
         </is>
       </c>
       <c r="B559">
-        <v>94.70899386660392</v>
+        <v>94.708994</v>
       </c>
     </row>
     <row r="560">
@@ -5956,7 +6062,7 @@
         </is>
       </c>
       <c r="B560">
-        <v>94.77460965358451</v>
+        <v>94.77461</v>
       </c>
     </row>
     <row r="561">
@@ -5966,7 +6072,7 @@
         </is>
       </c>
       <c r="B561">
-        <v>93.79832820634422</v>
+        <v>93.798328</v>
       </c>
     </row>
     <row r="562">
@@ -5976,7 +6082,7 @@
         </is>
       </c>
       <c r="B562">
-        <v>93.42127068783006</v>
+        <v>93.421271</v>
       </c>
     </row>
     <row r="563">
@@ -5986,7 +6092,7 @@
         </is>
       </c>
       <c r="B563">
-        <v>93.11654212145878</v>
+        <v>93.116542</v>
       </c>
     </row>
     <row r="564">
@@ -5996,7 +6102,7 @@
         </is>
       </c>
       <c r="B564">
-        <v>92.69902384149083</v>
+        <v>92.69902399999999</v>
       </c>
     </row>
     <row r="565">
@@ -6006,7 +6112,7 @@
         </is>
       </c>
       <c r="B565">
-        <v>93.34250343891601</v>
+        <v>93.34250299999999</v>
       </c>
     </row>
     <row r="566">
@@ -6016,7 +6122,7 @@
         </is>
       </c>
       <c r="B566">
-        <v>92.50309612396276</v>
+        <v>92.503096</v>
       </c>
     </row>
     <row r="567">
@@ -6026,7 +6132,7 @@
         </is>
       </c>
       <c r="B567">
-        <v>93.02235572043239</v>
+        <v>93.022356</v>
       </c>
     </row>
     <row r="568">
@@ -6036,7 +6142,7 @@
         </is>
       </c>
       <c r="B568">
-        <v>92.24101440097581</v>
+        <v>92.24101400000001</v>
       </c>
     </row>
     <row r="569">
@@ -6046,7 +6152,7 @@
         </is>
       </c>
       <c r="B569">
-        <v>92.37209406712327</v>
+        <v>92.372094</v>
       </c>
     </row>
     <row r="570">
@@ -6056,7 +6162,7 @@
         </is>
       </c>
       <c r="B570">
-        <v>93.07012376259351</v>
+        <v>93.07012400000001</v>
       </c>
     </row>
     <row r="571">
@@ -6066,7 +6172,7 @@
         </is>
       </c>
       <c r="B571">
-        <v>93.57280229389755</v>
+        <v>93.572802</v>
       </c>
     </row>
     <row r="572">
@@ -6076,7 +6182,7 @@
         </is>
       </c>
       <c r="B572">
-        <v>93.09201324120335</v>
+        <v>93.09201299999999</v>
       </c>
     </row>
     <row r="573">
@@ -6086,7 +6192,7 @@
         </is>
       </c>
       <c r="B573">
-        <v>94.97044929808531</v>
+        <v>94.970449</v>
       </c>
     </row>
     <row r="574">
@@ -6096,7 +6202,7 @@
         </is>
       </c>
       <c r="B574">
-        <v>95.74247906186551</v>
+        <v>95.742479</v>
       </c>
     </row>
     <row r="575">
@@ -6106,7 +6212,7 @@
         </is>
       </c>
       <c r="B575">
-        <v>95.96981118994709</v>
+        <v>95.96981100000001</v>
       </c>
     </row>
     <row r="576">
@@ -6116,7 +6222,7 @@
         </is>
       </c>
       <c r="B576">
-        <v>96.47953939193785</v>
+        <v>96.479539</v>
       </c>
     </row>
     <row r="577">
@@ -6126,7 +6232,7 @@
         </is>
       </c>
       <c r="B577">
-        <v>96.53996901063036</v>
+        <v>96.539969</v>
       </c>
     </row>
     <row r="578">
@@ -6136,7 +6242,7 @@
         </is>
       </c>
       <c r="B578">
-        <v>97.25032322171833</v>
+        <v>97.25032299999999</v>
       </c>
     </row>
     <row r="579">
@@ -6146,7 +6252,7 @@
         </is>
       </c>
       <c r="B579">
-        <v>98.26270724399357</v>
+        <v>98.26270700000001</v>
       </c>
     </row>
     <row r="580">
@@ -6156,7 +6262,7 @@
         </is>
       </c>
       <c r="B580">
-        <v>99.08489374119502</v>
+        <v>99.08489400000001</v>
       </c>
     </row>
     <row r="581">
@@ -6166,7 +6272,7 @@
         </is>
       </c>
       <c r="B581">
-        <v>99.93549480560999</v>
+        <v>99.935495</v>
       </c>
     </row>
     <row r="582">
@@ -6176,7 +6282,7 @@
         </is>
       </c>
       <c r="B582">
-        <v>98.21414002508449</v>
+        <v>98.21414</v>
       </c>
     </row>
     <row r="583">
@@ -6186,7 +6292,7 @@
         </is>
       </c>
       <c r="B583">
-        <v>99.06956608852391</v>
+        <v>99.06956599999999</v>
       </c>
     </row>
     <row r="584">
@@ -6196,7 +6302,7 @@
         </is>
       </c>
       <c r="B584">
-        <v>99.64562254538556</v>
+        <v>99.645623</v>
       </c>
     </row>
     <row r="585">
@@ -6206,7 +6312,7 @@
         </is>
       </c>
       <c r="B585">
-        <v>99.37662181498921</v>
+        <v>99.376622</v>
       </c>
     </row>
     <row r="586">
@@ -6216,7 +6322,7 @@
         </is>
       </c>
       <c r="B586">
-        <v>98.47577200821343</v>
+        <v>98.47577200000001</v>
       </c>
     </row>
     <row r="587">
@@ -6226,7 +6332,7 @@
         </is>
       </c>
       <c r="B587">
-        <v>100.5158662343206</v>
+        <v>100.515866</v>
       </c>
     </row>
     <row r="588">
@@ -6236,7 +6342,7 @@
         </is>
       </c>
       <c r="B588">
-        <v>100.638685784426</v>
+        <v>100.638686</v>
       </c>
     </row>
     <row r="589">
@@ -6246,7 +6352,7 @@
         </is>
       </c>
       <c r="B589">
-        <v>99.82139077869275</v>
+        <v>99.82139100000001</v>
       </c>
     </row>
     <row r="590">
@@ -6256,7 +6362,7 @@
         </is>
       </c>
       <c r="B590">
-        <v>98.89959280034965</v>
+        <v>98.899593</v>
       </c>
     </row>
     <row r="591">
@@ -6266,7 +6372,7 @@
         </is>
       </c>
       <c r="B591">
-        <v>98.57865439610106</v>
+        <v>98.578654</v>
       </c>
     </row>
     <row r="592">
@@ -6276,7 +6382,7 @@
         </is>
       </c>
       <c r="B592">
-        <v>97.20287031749719</v>
+        <v>97.20287</v>
       </c>
     </row>
     <row r="593">
@@ -6286,7 +6392,7 @@
         </is>
       </c>
       <c r="B593">
-        <v>97.41437729255799</v>
+        <v>97.414377</v>
       </c>
     </row>
     <row r="594">
@@ -6296,7 +6402,7 @@
         </is>
       </c>
       <c r="B594">
-        <v>98.03699904638111</v>
+        <v>98.03699899999999</v>
       </c>
     </row>
     <row r="595">
@@ -6306,7 +6412,7 @@
         </is>
       </c>
       <c r="B595">
-        <v>98.31078319467238</v>
+        <v>98.310783</v>
       </c>
     </row>
     <row r="596">
@@ -6316,7 +6422,7 @@
         </is>
       </c>
       <c r="B596">
-        <v>99.11976123092252</v>
+        <v>99.119761</v>
       </c>
     </row>
     <row r="597">
@@ -6326,7 +6432,7 @@
         </is>
       </c>
       <c r="B597">
-        <v>98.9545831880893</v>
+        <v>98.954583</v>
       </c>
     </row>
     <row r="598">
@@ -6336,7 +6442,7 @@
         </is>
       </c>
       <c r="B598">
-        <v>98.80850992518188</v>
+        <v>98.80851</v>
       </c>
     </row>
     <row r="599">
@@ -6346,7 +6452,7 @@
         </is>
       </c>
       <c r="B599">
-        <v>97.28074098845444</v>
+        <v>97.28074100000001</v>
       </c>
     </row>
     <row r="600">
@@ -6356,7 +6462,7 @@
         </is>
       </c>
       <c r="B600">
-        <v>95.92447415010193</v>
+        <v>95.924474</v>
       </c>
     </row>
     <row r="601">
@@ -6366,7 +6472,7 @@
         </is>
       </c>
       <c r="B601">
-        <v>97.50439623666971</v>
+        <v>97.504396</v>
       </c>
     </row>
     <row r="602">
@@ -6376,7 +6482,7 @@
         </is>
       </c>
       <c r="B602">
-        <v>96.84359199596108</v>
+        <v>96.843592</v>
       </c>
     </row>
     <row r="603">
@@ -6386,7 +6492,7 @@
         </is>
       </c>
       <c r="B603">
-        <v>96.17667022479178</v>
+        <v>96.17667</v>
       </c>
     </row>
     <row r="604">
@@ -6396,7 +6502,7 @@
         </is>
       </c>
       <c r="B604">
-        <v>96.10174046912545</v>
+        <v>96.10174000000001</v>
       </c>
     </row>
     <row r="605">
@@ -6406,7 +6512,7 @@
         </is>
       </c>
       <c r="B605">
-        <v>96.0609900935641</v>
+        <v>96.06099</v>
       </c>
     </row>
     <row r="606">
@@ -6416,7 +6522,7 @@
         </is>
       </c>
       <c r="B606">
-        <v>95.45241969572589</v>
+        <v>95.45242</v>
       </c>
     </row>
     <row r="607">
@@ -6426,7 +6532,7 @@
         </is>
       </c>
       <c r="B607">
-        <v>95.51443335498408</v>
+        <v>95.514433</v>
       </c>
     </row>
     <row r="608">
@@ -6436,7 +6542,7 @@
         </is>
       </c>
       <c r="B608">
-        <v>96.29930821845049</v>
+        <v>96.299308</v>
       </c>
     </row>
     <row r="609">
@@ -6446,7 +6552,7 @@
         </is>
       </c>
       <c r="B609">
-        <v>96.36883204789214</v>
+        <v>96.368832</v>
       </c>
     </row>
     <row r="610">
@@ -6456,7 +6562,7 @@
         </is>
       </c>
       <c r="B610">
-        <v>95.93209306752389</v>
+        <v>95.93209299999999</v>
       </c>
     </row>
     <row r="611">
@@ -6466,7 +6572,7 @@
         </is>
       </c>
       <c r="B611">
-        <v>94.77355841039873</v>
+        <v>94.77355799999999</v>
       </c>
     </row>
     <row r="612">
@@ -6476,7 +6582,7 @@
         </is>
       </c>
       <c r="B612">
-        <v>94.52186682174035</v>
+        <v>94.521867</v>
       </c>
     </row>
     <row r="613">
@@ -6486,7 +6592,7 @@
         </is>
       </c>
       <c r="B613">
-        <v>95.45532002208711</v>
+        <v>95.45532</v>
       </c>
     </row>
     <row r="614">
@@ -6496,7 +6602,7 @@
         </is>
       </c>
       <c r="B614">
-        <v>94.87795322657216</v>
+        <v>94.87795300000001</v>
       </c>
     </row>
     <row r="615">
@@ -6506,7 +6612,7 @@
         </is>
       </c>
       <c r="B615">
-        <v>96.41988234901308</v>
+        <v>96.419882</v>
       </c>
     </row>
     <row r="616">
@@ -6516,7 +6622,7 @@
         </is>
       </c>
       <c r="B616">
-        <v>96.79908473019883</v>
+        <v>96.79908500000001</v>
       </c>
     </row>
     <row r="617">
@@ -6526,7 +6632,7 @@
         </is>
       </c>
       <c r="B617">
-        <v>97.75078977738004</v>
+        <v>97.75078999999999</v>
       </c>
     </row>
     <row r="618">
@@ -6536,7 +6642,7 @@
         </is>
       </c>
       <c r="B618">
-        <v>97.05009985600809</v>
+        <v>97.0501</v>
       </c>
     </row>
     <row r="619">
@@ -6546,7 +6652,7 @@
         </is>
       </c>
       <c r="B619">
-        <v>96.39639804185927</v>
+        <v>96.396398</v>
       </c>
     </row>
     <row r="620">
@@ -6556,7 +6662,7 @@
         </is>
       </c>
       <c r="B620">
-        <v>96.95321893196495</v>
+        <v>96.953219</v>
       </c>
     </row>
     <row r="621">
@@ -6566,7 +6672,7 @@
         </is>
       </c>
       <c r="B621">
-        <v>96.2009276478711</v>
+        <v>96.200928</v>
       </c>
     </row>
     <row r="622">
@@ -6576,7 +6682,7 @@
         </is>
       </c>
       <c r="B622">
-        <v>95.13502894797769</v>
+        <v>95.135029</v>
       </c>
     </row>
     <row r="623">
@@ -6586,7 +6692,7 @@
         </is>
       </c>
       <c r="B623">
-        <v>94.30199575643357</v>
+        <v>94.301996</v>
       </c>
     </row>
     <row r="624">
@@ -6596,7 +6702,7 @@
         </is>
       </c>
       <c r="B624">
-        <v>93.87458752946341</v>
+        <v>93.874588</v>
       </c>
     </row>
     <row r="625">
@@ -6606,7 +6712,7 @@
         </is>
       </c>
       <c r="B625">
-        <v>92.70775290326819</v>
+        <v>92.707753</v>
       </c>
     </row>
     <row r="626">
@@ -6616,7 +6722,7 @@
         </is>
       </c>
       <c r="B626">
-        <v>92.65531835979652</v>
+        <v>92.65531799999999</v>
       </c>
     </row>
     <row r="627">
@@ -6626,7 +6732,7 @@
         </is>
       </c>
       <c r="B627">
-        <v>92.37116948609498</v>
+        <v>92.37116899999999</v>
       </c>
     </row>
     <row r="628">
@@ -6636,7 +6742,7 @@
         </is>
       </c>
       <c r="B628">
-        <v>92.48984837839059</v>
+        <v>92.48984799999999</v>
       </c>
     </row>
     <row r="629">
@@ -6646,7 +6752,7 @@
         </is>
       </c>
       <c r="B629">
-        <v>91.90552312414761</v>
+        <v>91.905523</v>
       </c>
     </row>
     <row r="630">
@@ -6656,7 +6762,7 @@
         </is>
       </c>
       <c r="B630">
-        <v>91.51436055469291</v>
+        <v>91.51436099999999</v>
       </c>
     </row>
     <row r="631">
@@ -6666,7 +6772,7 @@
         </is>
       </c>
       <c r="B631">
-        <v>90.76140589227016</v>
+        <v>90.76140599999999</v>
       </c>
     </row>
     <row r="632">
@@ -6676,7 +6782,7 @@
         </is>
       </c>
       <c r="B632">
-        <v>89.14680776770628</v>
+        <v>89.14680799999999</v>
       </c>
     </row>
     <row r="633">
@@ -6686,7 +6792,7 @@
         </is>
       </c>
       <c r="B633">
-        <v>88.82013553883381</v>
+        <v>88.82013600000001</v>
       </c>
     </row>
     <row r="634">
@@ -6696,7 +6802,7 @@
         </is>
       </c>
       <c r="B634">
-        <v>88.92955786843622</v>
+        <v>88.929558</v>
       </c>
     </row>
     <row r="635">
@@ -6706,7 +6812,7 @@
         </is>
       </c>
       <c r="B635">
-        <v>89.38180292803285</v>
+        <v>89.381803</v>
       </c>
     </row>
     <row r="636">
@@ -6716,7 +6822,7 @@
         </is>
       </c>
       <c r="B636">
-        <v>90.42949089671613</v>
+        <v>90.429491</v>
       </c>
     </row>
     <row r="637">
@@ -6726,7 +6832,7 @@
         </is>
       </c>
       <c r="B637">
-        <v>92.44182956462846</v>
+        <v>92.44183</v>
       </c>
     </row>
     <row r="638">
@@ -6736,7 +6842,7 @@
         </is>
       </c>
       <c r="B638">
-        <v>91.32691832061725</v>
+        <v>91.32691800000001</v>
       </c>
     </row>
     <row r="639">
@@ -6746,7 +6852,7 @@
         </is>
       </c>
       <c r="B639">
-        <v>90.52399407397861</v>
+        <v>90.523994</v>
       </c>
     </row>
     <row r="640">
@@ -6756,7 +6862,7 @@
         </is>
       </c>
       <c r="B640">
-        <v>90.58837168185805</v>
+        <v>90.58837200000001</v>
       </c>
     </row>
     <row r="641">
@@ -6766,7 +6872,7 @@
         </is>
       </c>
       <c r="B641">
-        <v>91.8735720412741</v>
+        <v>91.873572</v>
       </c>
     </row>
     <row r="642">
@@ -6776,7 +6882,7 @@
         </is>
       </c>
       <c r="B642">
-        <v>91.37503741342346</v>
+        <v>91.37503700000001</v>
       </c>
     </row>
     <row r="643">
@@ -6786,7 +6892,7 @@
         </is>
       </c>
       <c r="B643">
-        <v>92.36100984019394</v>
+        <v>92.36100999999999</v>
       </c>
     </row>
     <row r="644">
@@ -6796,7 +6902,7 @@
         </is>
       </c>
       <c r="B644">
-        <v>91.7421339742687</v>
+        <v>91.74213399999999</v>
       </c>
     </row>
     <row r="645">
@@ -6806,7 +6912,7 @@
         </is>
       </c>
       <c r="B645">
-        <v>93.63791143057225</v>
+        <v>93.637911</v>
       </c>
     </row>
     <row r="646">
@@ -6816,7 +6922,7 @@
         </is>
       </c>
       <c r="B646">
-        <v>92.95106563882158</v>
+        <v>92.951066</v>
       </c>
     </row>
     <row r="647">
@@ -6826,7 +6932,7 @@
         </is>
       </c>
       <c r="B647">
-        <v>93.6577282692737</v>
+        <v>93.65772800000001</v>
       </c>
     </row>
     <row r="648">
@@ -6836,7 +6942,7 @@
         </is>
       </c>
       <c r="B648">
-        <v>94.81595220819304</v>
+        <v>94.815952</v>
       </c>
     </row>
     <row r="649">
@@ -6846,7 +6952,7 @@
         </is>
       </c>
       <c r="B649">
-        <v>95.58214691224921</v>
+        <v>95.58214700000001</v>
       </c>
     </row>
     <row r="650">
@@ -6856,7 +6962,7 @@
         </is>
       </c>
       <c r="B650">
-        <v>94.42047993817229</v>
+        <v>94.42048</v>
       </c>
     </row>
     <row r="651">
@@ -6866,7 +6972,7 @@
         </is>
       </c>
       <c r="B651">
-        <v>93.65046377508588</v>
+        <v>93.650464</v>
       </c>
     </row>
     <row r="652">
@@ -6876,7 +6982,7 @@
         </is>
       </c>
       <c r="B652">
-        <v>93.92368155857557</v>
+        <v>93.923682</v>
       </c>
     </row>
     <row r="653">
@@ -6886,7 +6992,7 @@
         </is>
       </c>
       <c r="B653">
-        <v>94.77825033076442</v>
+        <v>94.77825</v>
       </c>
     </row>
     <row r="654">
@@ -6896,7 +7002,7 @@
         </is>
       </c>
       <c r="B654">
-        <v>94.86599601589111</v>
+        <v>94.865996</v>
       </c>
     </row>
     <row r="655">
@@ -6906,7 +7012,7 @@
         </is>
       </c>
       <c r="B655">
-        <v>94.44174146741517</v>
+        <v>94.44174099999999</v>
       </c>
     </row>
     <row r="656">
@@ -6916,7 +7022,7 @@
         </is>
       </c>
       <c r="B656">
-        <v>94.64929369080829</v>
+        <v>94.649294</v>
       </c>
     </row>
     <row r="657">
@@ -6926,7 +7032,7 @@
         </is>
       </c>
       <c r="B657">
-        <v>93.80266315824257</v>
+        <v>93.802663</v>
       </c>
     </row>
     <row r="658">
@@ -6936,7 +7042,7 @@
         </is>
       </c>
       <c r="B658">
-        <v>93.5586021954262</v>
+        <v>93.55860199999999</v>
       </c>
     </row>
     <row r="659">
@@ -6946,7 +7052,7 @@
         </is>
       </c>
       <c r="B659">
-        <v>94.25309800836622</v>
+        <v>94.25309799999999</v>
       </c>
     </row>
     <row r="660">
@@ -6956,7 +7062,7 @@
         </is>
       </c>
       <c r="B660">
-        <v>94.1832732996984</v>
+        <v>94.183273</v>
       </c>
     </row>
     <row r="661">
@@ -6966,7 +7072,7 @@
         </is>
       </c>
       <c r="B661">
-        <v>94.14184343108175</v>
+        <v>94.14184299999999</v>
       </c>
     </row>
     <row r="662">
@@ -6976,7 +7082,7 @@
         </is>
       </c>
       <c r="B662">
-        <v>94.27550355882025</v>
+        <v>94.275504</v>
       </c>
     </row>
     <row r="663">
@@ -6986,7 +7092,7 @@
         </is>
       </c>
       <c r="B663">
-        <v>96.22236108455672</v>
+        <v>96.22236100000001</v>
       </c>
     </row>
     <row r="664">
@@ -6996,7 +7102,7 @@
         </is>
       </c>
       <c r="B664">
-        <v>95.30635526241228</v>
+        <v>95.306355</v>
       </c>
     </row>
     <row r="665">
@@ -7006,7 +7112,7 @@
         </is>
       </c>
       <c r="B665">
-        <v>94.0709700527411</v>
+        <v>94.07097</v>
       </c>
     </row>
     <row r="666">
@@ -7016,7 +7122,7 @@
         </is>
       </c>
       <c r="B666">
-        <v>93.10786880587175</v>
+        <v>93.10786899999999</v>
       </c>
     </row>
     <row r="667">
@@ -7026,7 +7132,7 @@
         </is>
       </c>
       <c r="B667">
-        <v>92.29021629532836</v>
+        <v>92.290216</v>
       </c>
     </row>
     <row r="668">
@@ -7036,7 +7142,7 @@
         </is>
       </c>
       <c r="B668">
-        <v>90.79481531911348</v>
+        <v>90.794815</v>
       </c>
     </row>
     <row r="669">
@@ -7046,7 +7152,7 @@
         </is>
       </c>
       <c r="B669">
-        <v>90.50761569561932</v>
+        <v>90.507616</v>
       </c>
     </row>
     <row r="670">
@@ -7056,7 +7162,7 @@
         </is>
       </c>
       <c r="B670">
-        <v>89.09598335563432</v>
+        <v>89.095983</v>
       </c>
     </row>
     <row r="671">
@@ -7066,7 +7172,7 @@
         </is>
       </c>
       <c r="B671">
-        <v>89.28809909347426</v>
+        <v>89.288099</v>
       </c>
     </row>
     <row r="672">
@@ -7076,7 +7182,7 @@
         </is>
       </c>
       <c r="B672">
-        <v>90.06726188715712</v>
+        <v>90.067262</v>
       </c>
     </row>
     <row r="673">
@@ -7086,7 +7192,7 @@
         </is>
       </c>
       <c r="B673">
-        <v>91.90078217884418</v>
+        <v>91.90078200000001</v>
       </c>
     </row>
     <row r="674">
@@ -7096,7 +7202,7 @@
         </is>
       </c>
       <c r="B674">
-        <v>91.58403238614343</v>
+        <v>91.58403199999999</v>
       </c>
     </row>
     <row r="675">
@@ -7106,7 +7212,7 @@
         </is>
       </c>
       <c r="B675">
-        <v>92.55305311075084</v>
+        <v>92.55305300000001</v>
       </c>
     </row>
     <row r="676">
@@ -7116,7 +7222,7 @@
         </is>
       </c>
       <c r="B676">
-        <v>92.99245560589746</v>
+        <v>92.992456</v>
       </c>
     </row>
     <row r="677">
@@ -7126,7 +7232,7 @@
         </is>
       </c>
       <c r="B677">
-        <v>93.7562824165319</v>
+        <v>93.756282</v>
       </c>
     </row>
     <row r="678">
@@ -7136,7 +7242,7 @@
         </is>
       </c>
       <c r="B678">
-        <v>93.95324046939197</v>
+        <v>93.95323999999999</v>
       </c>
     </row>
     <row r="679">
@@ -7146,7 +7252,7 @@
         </is>
       </c>
       <c r="B679">
-        <v>93.11806356881145</v>
+        <v>93.118064</v>
       </c>
     </row>
     <row r="680">
@@ -7156,7 +7262,7 @@
         </is>
       </c>
       <c r="B680">
-        <v>92.79155601917444</v>
+        <v>92.791556</v>
       </c>
     </row>
     <row r="681">
@@ -7166,7 +7272,7 @@
         </is>
       </c>
       <c r="B681">
-        <v>93.41296244782646</v>
+        <v>93.41296199999999</v>
       </c>
     </row>
     <row r="682">
@@ -7176,7 +7282,7 @@
         </is>
       </c>
       <c r="B682">
-        <v>93.84901811083441</v>
+        <v>93.849018</v>
       </c>
     </row>
     <row r="683">
@@ -7186,7 +7292,7 @@
         </is>
       </c>
       <c r="B683">
-        <v>94.85155641664794</v>
+        <v>94.851556</v>
       </c>
     </row>
     <row r="684">
@@ -7196,7 +7302,7 @@
         </is>
       </c>
       <c r="B684">
-        <v>94.84564781173839</v>
+        <v>94.845648</v>
       </c>
     </row>
     <row r="685">
@@ -7206,7 +7312,7 @@
         </is>
       </c>
       <c r="B685">
-        <v>96.79069806494223</v>
+        <v>96.79069800000001</v>
       </c>
     </row>
     <row r="686">
@@ -7216,7 +7322,7 @@
         </is>
       </c>
       <c r="B686">
-        <v>97.49408461779002</v>
+        <v>97.494085</v>
       </c>
     </row>
     <row r="687">
@@ -7226,7 +7332,7 @@
         </is>
       </c>
       <c r="B687">
-        <v>97.79372208007572</v>
+        <v>97.793722</v>
       </c>
     </row>
     <row r="688">
@@ -7236,7 +7342,7 @@
         </is>
       </c>
       <c r="B688">
-        <v>97.45543283760486</v>
+        <v>97.455433</v>
       </c>
     </row>
     <row r="689">
@@ -7246,7 +7352,7 @@
         </is>
       </c>
       <c r="B689">
-        <v>96.97597957748619</v>
+        <v>96.97598000000001</v>
       </c>
     </row>
     <row r="690">
@@ -7256,7 +7362,7 @@
         </is>
       </c>
       <c r="B690">
-        <v>97.33571575290964</v>
+        <v>97.33571600000001</v>
       </c>
     </row>
     <row r="691">
@@ -7266,7 +7372,7 @@
         </is>
       </c>
       <c r="B691">
-        <v>97.9231341856825</v>
+        <v>97.923134</v>
       </c>
     </row>
     <row r="692">
@@ -7276,7 +7382,7 @@
         </is>
       </c>
       <c r="B692">
-        <v>96.56309055121247</v>
+        <v>96.563091</v>
       </c>
     </row>
     <row r="693">
@@ -7286,7 +7392,7 @@
         </is>
       </c>
       <c r="B693">
-        <v>96.09664309773937</v>
+        <v>96.096643</v>
       </c>
     </row>
     <row r="694">
@@ -7296,7 +7402,7 @@
         </is>
       </c>
       <c r="B694">
-        <v>96.73248566763318</v>
+        <v>96.73248599999999</v>
       </c>
     </row>
     <row r="695">
@@ -7306,7 +7412,7 @@
         </is>
       </c>
       <c r="B695">
-        <v>96.71022765963704</v>
+        <v>96.710228</v>
       </c>
     </row>
     <row r="696">
@@ -7316,7 +7422,7 @@
         </is>
       </c>
       <c r="B696">
-        <v>97.46929569245469</v>
+        <v>97.469296</v>
       </c>
     </row>
     <row r="697">
@@ -7326,7 +7432,7 @@
         </is>
       </c>
       <c r="B697">
-        <v>97.8260064222185</v>
+        <v>97.82600600000001</v>
       </c>
     </row>
     <row r="698">
@@ -7336,7 +7442,7 @@
         </is>
       </c>
       <c r="B698">
-        <v>97.6697918599051</v>
+        <v>97.669792</v>
       </c>
     </row>
     <row r="699">
@@ -7346,7 +7452,7 @@
         </is>
       </c>
       <c r="B699">
-        <v>97.54771024966114</v>
+        <v>97.54771</v>
       </c>
     </row>
     <row r="700">
@@ -7356,7 +7462,7 @@
         </is>
       </c>
       <c r="B700">
-        <v>97.48791972812025</v>
+        <v>97.48792</v>
       </c>
     </row>
     <row r="701">
@@ -7366,7 +7472,7 @@
         </is>
       </c>
       <c r="B701">
-        <v>97.73284907730716</v>
+        <v>97.732849</v>
       </c>
     </row>
     <row r="702">
@@ -7376,7 +7482,7 @@
         </is>
       </c>
       <c r="B702">
-        <v>96.10889151138367</v>
+        <v>96.108892</v>
       </c>
     </row>
     <row r="703">
@@ -7386,7 +7492,7 @@
         </is>
       </c>
       <c r="B703">
-        <v>95.70371880822221</v>
+        <v>95.70371900000001</v>
       </c>
     </row>
     <row r="704">
@@ -7396,7 +7502,7 @@
         </is>
       </c>
       <c r="B704">
-        <v>96.69537896908305</v>
+        <v>96.695379</v>
       </c>
     </row>
     <row r="705">
@@ -7406,7 +7512,7 @@
         </is>
       </c>
       <c r="B705">
-        <v>96.78917929799083</v>
+        <v>96.789179</v>
       </c>
     </row>
     <row r="706">
@@ -7416,7 +7522,7 @@
         </is>
       </c>
       <c r="B706">
-        <v>96.22692592487915</v>
+        <v>96.22692600000001</v>
       </c>
     </row>
     <row r="707">
@@ -7426,7 +7532,7 @@
         </is>
       </c>
       <c r="B707">
-        <v>95.71202327730636</v>
+        <v>95.712023</v>
       </c>
     </row>
     <row r="708">
@@ -7436,7 +7542,7 @@
         </is>
       </c>
       <c r="B708">
-        <v>95.4816278283911</v>
+        <v>95.481628</v>
       </c>
     </row>
     <row r="709">
@@ -7446,7 +7552,7 @@
         </is>
       </c>
       <c r="B709">
-        <v>95.21683383396581</v>
+        <v>95.21683400000001</v>
       </c>
     </row>
     <row r="710">
@@ -7456,7 +7562,7 @@
         </is>
       </c>
       <c r="B710">
-        <v>95.66150927834349</v>
+        <v>95.661509</v>
       </c>
     </row>
     <row r="711">
@@ -7466,7 +7572,7 @@
         </is>
       </c>
       <c r="B711">
-        <v>95.0398662946571</v>
+        <v>95.039866</v>
       </c>
     </row>
     <row r="712">
@@ -7476,7 +7582,7 @@
         </is>
       </c>
       <c r="B712">
-        <v>96.15606123350796</v>
+        <v>96.15606099999999</v>
       </c>
     </row>
     <row r="713">
@@ -7486,7 +7592,7 @@
         </is>
       </c>
       <c r="B713">
-        <v>95.72885912377583</v>
+        <v>95.728859</v>
       </c>
     </row>
     <row r="714">
@@ -7496,7 +7602,7 @@
         </is>
       </c>
       <c r="B714">
-        <v>96.56940958817236</v>
+        <v>96.56941</v>
       </c>
     </row>
     <row r="715">
@@ -7506,7 +7612,7 @@
         </is>
       </c>
       <c r="B715">
-        <v>95.82409704953403</v>
+        <v>95.82409699999999</v>
       </c>
     </row>
     <row r="716">
@@ -7516,7 +7622,7 @@
         </is>
       </c>
       <c r="B716">
-        <v>97.15246331567189</v>
+        <v>97.152463</v>
       </c>
     </row>
     <row r="717">
@@ -7526,7 +7632,7 @@
         </is>
       </c>
       <c r="B717">
-        <v>98.31714153246726</v>
+        <v>98.317142</v>
       </c>
     </row>
     <row r="718">
@@ -7536,7 +7642,7 @@
         </is>
       </c>
       <c r="B718">
-        <v>97.86295377196258</v>
+        <v>97.862954</v>
       </c>
     </row>
     <row r="719">
@@ -7546,7 +7652,7 @@
         </is>
       </c>
       <c r="B719">
-        <v>98.12142232540809</v>
+        <v>98.121422</v>
       </c>
     </row>
     <row r="720">
@@ -7556,7 +7662,7 @@
         </is>
       </c>
       <c r="B720">
-        <v>98.04107147640508</v>
+        <v>98.041071</v>
       </c>
     </row>
     <row r="721">
@@ -7566,7 +7672,7 @@
         </is>
       </c>
       <c r="B721">
-        <v>97.75882829049444</v>
+        <v>97.75882799999999</v>
       </c>
     </row>
     <row r="722">
@@ -7576,7 +7682,7 @@
         </is>
       </c>
       <c r="B722">
-        <v>99.31960013188447</v>
+        <v>99.31959999999999</v>
       </c>
     </row>
     <row r="723">
@@ -7586,7 +7692,7 @@
         </is>
       </c>
       <c r="B723">
-        <v>97.3420417157524</v>
+        <v>97.34204200000001</v>
       </c>
     </row>
     <row r="724">
@@ -7596,7 +7702,7 @@
         </is>
       </c>
       <c r="B724">
-        <v>98.88627518951138</v>
+        <v>98.886275</v>
       </c>
     </row>
     <row r="725">
@@ -7606,7 +7712,7 @@
         </is>
       </c>
       <c r="B725">
-        <v>98.65359796364547</v>
+        <v>98.653598</v>
       </c>
     </row>
     <row r="726">
@@ -7616,7 +7722,7 @@
         </is>
       </c>
       <c r="B726">
-        <v>99.24978282233235</v>
+        <v>99.24978299999999</v>
       </c>
     </row>
     <row r="727">
@@ -7626,7 +7732,7 @@
         </is>
       </c>
       <c r="B727">
-        <v>98.65559723554227</v>
+        <v>98.655597</v>
       </c>
     </row>
     <row r="728">
@@ -7636,7 +7742,7 @@
         </is>
       </c>
       <c r="B728">
-        <v>98.53213099805521</v>
+        <v>98.53213100000001</v>
       </c>
     </row>
     <row r="729">
@@ -7646,7 +7752,7 @@
         </is>
       </c>
       <c r="B729">
-        <v>99.79685884645347</v>
+        <v>99.796859</v>
       </c>
     </row>
     <row r="730">
@@ -7656,7 +7762,7 @@
         </is>
       </c>
       <c r="B730">
-        <v>99.5002424819141</v>
+        <v>99.500242</v>
       </c>
     </row>
     <row r="731">
@@ -7666,7 +7772,7 @@
         </is>
       </c>
       <c r="B731">
-        <v>100.2747497903951</v>
+        <v>100.27475</v>
       </c>
     </row>
   </sheetData>
